--- a/PSL (2).xlsx
+++ b/PSL (2).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lupfu\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lupfu\OneDrive\Desktop\PSL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A541EEDB-4A2A-4DF2-9330-FC1C1A1FE97C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818BBD15-D6F9-4842-BFB2-63D43B69DEF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3984" yWindow="2136" windowWidth="15708" windowHeight="9096" tabRatio="705" firstSheet="18" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="705" firstSheet="18" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1996-1997" sheetId="24" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="621">
   <si>
     <t>Cape Town City</t>
   </si>
@@ -517,9 +517,6 @@
   </si>
   <si>
     <t>Longest Unbeatn run : 5</t>
-  </si>
-  <si>
-    <t>Longest winning run : 0</t>
   </si>
   <si>
     <t>2019/20 PSL SEASON</t>
@@ -2466,9 +2463,6 @@
     <t>3-1-1-1-4-3</t>
   </si>
   <si>
-    <t>3-1-2-0-4-3</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -6198,14 +6192,14 @@
     <t>7-1-5-1-5-6</t>
   </si>
   <si>
-    <t>DDWWDDW</t>
-  </si>
-  <si>
-    <t>7-3-4-0-9-6</t>
-  </si>
-  <si>
-    <r>
-      <t>LLLL</t>
+    <t>DDLWLWLD</t>
+  </si>
+  <si>
+    <t>8-2-3-3-8-10</t>
+  </si>
+  <si>
+    <r>
+      <t>DWDDDLLL</t>
     </r>
     <r>
       <rPr>
@@ -6217,28 +6211,49 @@
       </rPr>
       <t>|</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LDLD</t>
-    </r>
-  </si>
-  <si>
-    <t>8-0-2-6-6-14</t>
-  </si>
-  <si>
-    <t>DDLWLWLD</t>
-  </si>
-  <si>
-    <t>8-2-3-3-8-10</t>
-  </si>
-  <si>
-    <r>
-      <t>DWDDDLLL</t>
+  </si>
+  <si>
+    <t>DWDDDDWD</t>
+  </si>
+  <si>
+    <t>8-2-6-0-12-8</t>
+  </si>
+  <si>
+    <t>WLWLWWW</t>
+  </si>
+  <si>
+    <t>7-5-0-2-12-8</t>
+  </si>
+  <si>
+    <t>WWD|LDWLL</t>
+  </si>
+  <si>
+    <t>8-3-2-3-10-11</t>
+  </si>
+  <si>
+    <t>LWDDLDLD</t>
+  </si>
+  <si>
+    <t>8-1-4-3-7-11</t>
+  </si>
+  <si>
+    <t>DWLWDDWW</t>
+  </si>
+  <si>
+    <t>8-4-3-1-14-11</t>
+  </si>
+  <si>
+    <t>8-1-4-3-5-8</t>
+  </si>
+  <si>
+    <t>DWWDWDWW</t>
+  </si>
+  <si>
+    <t>8-5-3-0-10-3</t>
+  </si>
+  <si>
+    <r>
+      <t>LLL</t>
     </r>
     <r>
       <rPr>
@@ -6250,61 +6265,22 @@
       </rPr>
       <t>|</t>
     </r>
-  </si>
-  <si>
-    <t>WDWWWDWD</t>
-  </si>
-  <si>
-    <t>8-5-3-0-16-5</t>
-  </si>
-  <si>
-    <t>DWDDDDWD</t>
-  </si>
-  <si>
-    <t>8-2-6-0-12-8</t>
-  </si>
-  <si>
-    <t>WLWLWWW</t>
-  </si>
-  <si>
-    <t>7-5-0-2-12-8</t>
-  </si>
-  <si>
-    <t>WWD|LDWLL</t>
-  </si>
-  <si>
-    <t>8-3-2-3-10-11</t>
-  </si>
-  <si>
-    <t>LWDDLDLD</t>
-  </si>
-  <si>
-    <t>8-1-4-3-7-11</t>
-  </si>
-  <si>
-    <t>DLLLWWD</t>
-  </si>
-  <si>
-    <t>7-2-2-3-7-8</t>
-  </si>
-  <si>
-    <t>DWLWDDWW</t>
-  </si>
-  <si>
-    <t>8-4-3-1-14-11</t>
-  </si>
-  <si>
-    <t>8-1-4-3-5-8</t>
-  </si>
-  <si>
-    <t>DWWDWDWW</t>
-  </si>
-  <si>
-    <t>8-5-3-0-10-3</t>
-  </si>
-  <si>
-    <r>
-      <t>LLL</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WLDDL</t>
+    </r>
+  </si>
+  <si>
+    <t>8-1-2-5-6-13</t>
+  </si>
+  <si>
+    <r>
+      <t>DLWLDD</t>
     </r>
     <r>
       <rPr>
@@ -6323,15 +6299,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>WLDDL</t>
-    </r>
-  </si>
-  <si>
-    <t>8-1-2-5-6-13</t>
-  </si>
-  <si>
-    <r>
-      <t>DLWLDD</t>
+      <t>LW</t>
+    </r>
+  </si>
+  <si>
+    <t>8-2-3-3-11-11</t>
+  </si>
+  <si>
+    <t>8-1-2-5-7-12</t>
+  </si>
+  <si>
+    <r>
+      <t>DLWLDLLL</t>
     </r>
     <r>
       <rPr>
@@ -6343,25 +6322,1225 @@
       </rPr>
       <t>|</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LW</t>
-    </r>
-  </si>
-  <si>
-    <t>8-2-3-3-11-11</t>
-  </si>
-  <si>
-    <t>8-1-2-5-7-12</t>
-  </si>
-  <si>
-    <r>
-      <t>DLWLDLLL</t>
+  </si>
+  <si>
+    <t>3-2-1-0-4-2</t>
+  </si>
+  <si>
+    <t>4-1-1-2-4-5</t>
+  </si>
+  <si>
+    <t>3-3-0-0-5-1</t>
+  </si>
+  <si>
+    <t>4-0-0-4-2-8</t>
+  </si>
+  <si>
+    <t>4-3-1-0-4-0</t>
+  </si>
+  <si>
+    <t>3-0-3-0-2-2</t>
+  </si>
+  <si>
+    <t>4-1-3-0-5-3</t>
+  </si>
+  <si>
+    <t>4-1-2-1-4-4</t>
+  </si>
+  <si>
+    <t>4-2-2-0-5-3</t>
+  </si>
+  <si>
+    <t>4-2-1-1-4-2</t>
+  </si>
+  <si>
+    <t>5-1-2-2-4-7</t>
+  </si>
+  <si>
+    <t>4-2-2-0-7-2</t>
+  </si>
+  <si>
+    <t>4-1-3-0-7-5</t>
+  </si>
+  <si>
+    <t>4-2-0-2-7-7</t>
+  </si>
+  <si>
+    <t>4-2-1-1-6-6</t>
+  </si>
+  <si>
+    <t>4-0-3-1-3-6</t>
+  </si>
+  <si>
+    <t>5-2-2-1-10-9</t>
+  </si>
+  <si>
+    <t>5-0-3-2-3-6</t>
+  </si>
+  <si>
+    <t>4-2-2-0-6-3</t>
+  </si>
+  <si>
+    <t>4-1-1-2-4-6</t>
+  </si>
+  <si>
+    <t>5-0-1-4-3-9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CPT City: 1-2          (H) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Sinkala]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sundowns: 0-2          (A)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [-]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TS Galaxy: 2-0         (H) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Shalulile; Zwane]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Supersport: 1-2 (A)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Manyama]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chiefs: 2-1               (H)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Grobler;Mbule]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maritzburg: 2-0       (H)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Gamildien X2]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leopards: 1-1      (A)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Manzini]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tshakhuma: 1-1   (H)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Kabwe]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Amazulu: 2-0            (A)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Ndwandwe;Sibiya]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pirates: 0-1            (A)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [-]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chippa: 1-0              (H)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Makaringe]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Baroka: 2-0          (H)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Mangweni;Njoti]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Celtic: 0-2              (A)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [-]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stellenbosch: 2-2 (H)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Moseamedi X2]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Swallows: 0-2       (A)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [-]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maritzburg: 2-2     (A)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Van Heerden; Dimgba]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Sundowns: 1-1        (H) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Gumede]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Arrows: 1-1               (A)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Mvala]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Baroka: 3-1              (A) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Grobler X2;Gabuza]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Celtic: 1-1            (H)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  [Akumu]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chiefs: 1-1            (A)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Mangweni]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TS Galaxy: 3-2        (H)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Ralani;Mdantsane; Morris]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stellenbosch: 2-1  (A)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Nodada; Martin]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CPT City: 2-3               (A)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Macuphu X2]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Swallows: 1-2        (H)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Ononogbu]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leopards: 2-1          (A)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Gamildien;Mhlongo]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Amazulu: 1-3        (A)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Nhlapo]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chippa: 3-1                (H)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Mulenga;Memela X2]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Arrows: 0-2                (H)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [-]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Supersport: 1-3    (H)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kekana(OG)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Baroka: 1-3           (H)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shozi(OG)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Supersport: 1-2  (H) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Williams(OG)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>WDWWWDWDW</t>
+  </si>
+  <si>
+    <t>9-6-3-0-17-5</t>
+  </si>
+  <si>
+    <t>DDWWDDWL</t>
+  </si>
+  <si>
+    <t>8-3-4-1-9-7</t>
+  </si>
+  <si>
+    <r>
+      <t>LLLL</t>
     </r>
     <r>
       <rPr>
@@ -6373,78 +7552,33 @@
       </rPr>
       <t>|</t>
     </r>
-  </si>
-  <si>
-    <t>3-2-1-0-4-2</t>
-  </si>
-  <si>
-    <t>4-3-1-0-9-4</t>
-  </si>
-  <si>
-    <t>4-1-1-2-4-5</t>
-  </si>
-  <si>
-    <t>3-3-0-0-5-1</t>
-  </si>
-  <si>
-    <t>4-0-0-4-2-8</t>
-  </si>
-  <si>
-    <t>4-3-1-0-4-0</t>
-  </si>
-  <si>
-    <t>3-0-3-0-2-2</t>
-  </si>
-  <si>
-    <t>4-1-3-0-5-3</t>
-  </si>
-  <si>
-    <t>4-1-2-1-4-4</t>
-  </si>
-  <si>
-    <t>4-2-2-0-5-3</t>
-  </si>
-  <si>
-    <t>4-2-1-1-4-2</t>
-  </si>
-  <si>
-    <t>5-1-2-2-4-7</t>
-  </si>
-  <si>
-    <t>4-0-2-2-4-6</t>
-  </si>
-  <si>
-    <t>4-2-2-0-7-2</t>
-  </si>
-  <si>
-    <t>4-1-3-0-7-5</t>
-  </si>
-  <si>
-    <t>4-2-0-2-7-7</t>
-  </si>
-  <si>
-    <t>4-2-1-1-6-6</t>
-  </si>
-  <si>
-    <t>3-0-1-2-3-6</t>
-  </si>
-  <si>
-    <t>4-0-3-1-3-6</t>
-  </si>
-  <si>
-    <t>5-2-2-1-10-9</t>
-  </si>
-  <si>
-    <t>5-0-3-2-3-6</t>
-  </si>
-  <si>
-    <t>4-2-2-0-6-3</t>
-  </si>
-  <si>
-    <t>4-1-1-2-4-6</t>
-  </si>
-  <si>
-    <t>5-0-1-4-3-9</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LDLDW</t>
+    </r>
+  </si>
+  <si>
+    <t>9-1-2-6-8-15</t>
+  </si>
+  <si>
+    <t>DLLLWWDL</t>
+  </si>
+  <si>
+    <t>8-2-2-4-8-10</t>
+  </si>
+  <si>
+    <t>5-4-1-0-10-4</t>
+  </si>
+  <si>
+    <t>4-0-1-3-4-8</t>
+  </si>
+  <si>
+    <t>5-1-2-2-6-7</t>
   </si>
   <si>
     <r>
@@ -6456,7 +7590,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">CPT City: 1-2          (H) </t>
+      <t>Maritzburg: 1-2   (A)</t>
     </r>
     <r>
       <rPr>
@@ -6467,7 +7601,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> [Sinkala]</t>
+      <t xml:space="preserve"> [Letsoalo]</t>
     </r>
   </si>
   <si>
@@ -6480,7 +7614,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Sundowns: 0-2          (A)</t>
+      <t>Pirates: 1-0               (H)</t>
     </r>
     <r>
       <rPr>
@@ -6501,6 +7635,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>[B.Onyango]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sundowns: 0-1        (A)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> [-]</t>
     </r>
   </si>
@@ -6514,7 +7672,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">TS Galaxy: 2-0         (H) </t>
+      <t>Celtic: 2-1               (H)</t>
     </r>
     <r>
       <rPr>
@@ -6535,1055 +7693,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[Shalulile; Zwane]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Supersport: 1-2 (A)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Manyama]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chiefs: 2-1               (H)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Grobler;Mbule]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Maritzburg: 2-0       (H)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Gamildien X2]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Leopards: 1-1      (A)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Manzini]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tshakhuma: 1-1   (H)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Kabwe]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Amazulu: 2-0            (A)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Ndwandwe;Sibiya]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pirates: 0-1            (A)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [-]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chippa: 1-0              (H)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Makaringe]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Baroka: 2-0          (H)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Mangweni;Njoti]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Celtic: 0-2              (A)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [-]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Stellenbosch: 2-2 (H)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Moseamedi X2]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Swallows: 0-2       (A)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [-]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Maritzburg: 2-2     (A)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Van Heerden; Dimgba]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Sundowns: 1-1        (H) </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [Gumede]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Arrows: 1-1               (A)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Mvala]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Baroka: 3-1              (A) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Grobler X2;Gabuza]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Celtic: 1-1            (H)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  [Akumu]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chiefs: 1-1            (A)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Mangweni]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TS Galaxy: 3-2        (H)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Ralani;Mdantsane; Morris]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Stellenbosch: 2-1  (A)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [Nodada; Martin]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CPT City: 2-3               (A)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Macuphu X2]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Swallows: 1-2        (H)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Ononogbu]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Leopards: 2-1          (A)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Gamildien;Mhlongo]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Amazulu: 1-3        (A)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Nhlapo]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chippa: 3-1                (H)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Mulenga;Memela X2]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Arrows: 0-2                (H)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [-]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Supersport: 1-3    (H)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Kekana(OG)</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Baroka: 1-3           (H)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Shozi(OG)</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Supersport: 1-2  (H) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Williams(OG)</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
+      <t>[Kutumela X2]</t>
     </r>
   </si>
 </sst>
@@ -8891,7 +9001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="512">
+  <cellXfs count="513">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9574,13 +9684,11 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="16" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9597,9 +9705,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="16" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9609,7 +9715,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -9882,6 +9987,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13080,27 +13195,27 @@
     <row r="1" spans="13:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="13:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M2" s="282" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N2" s="344" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O2" s="345"/>
       <c r="P2" s="346"/>
     </row>
     <row r="3" spans="13:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M3" s="343" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N3" s="331" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O3" s="291"/>
       <c r="P3" s="292"/>
     </row>
     <row r="9" spans="13:16" x14ac:dyDescent="0.3">
       <c r="O9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -13127,30 +13242,30 @@
     <row r="1" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G2" s="338" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H2" s="329" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I2" s="296"/>
       <c r="J2" s="297"/>
     </row>
     <row r="3" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G3" s="336" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H3" s="330" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I3" s="294"/>
       <c r="J3" s="295"/>
     </row>
     <row r="4" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G4" s="336" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H4" s="331" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I4" s="291"/>
       <c r="J4" s="292"/>
@@ -13178,33 +13293,33 @@
     <row r="1" spans="12:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="12:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L2" s="338" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M2" s="339"/>
       <c r="N2" s="329" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O2" s="296"/>
       <c r="P2" s="297"/>
     </row>
     <row r="3" spans="12:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L3" s="284" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M3" s="285"/>
       <c r="N3" s="330" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O3" s="294"/>
       <c r="P3" s="295"/>
     </row>
     <row r="4" spans="12:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L4" s="336" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M4" s="337"/>
       <c r="N4" s="331" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O4" s="291"/>
       <c r="P4" s="292"/>
@@ -13232,30 +13347,30 @@
     <row r="1" spans="12:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="12:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L2" s="338" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M2" s="329" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N2" s="296"/>
       <c r="O2" s="297"/>
     </row>
     <row r="3" spans="12:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L3" s="284" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M3" s="330" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N3" s="294"/>
       <c r="O3" s="295"/>
     </row>
     <row r="4" spans="12:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L4" s="286" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M4" s="331" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N4" s="291"/>
       <c r="O4" s="292"/>
@@ -13283,33 +13398,33 @@
     <row r="29" spans="12:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="12:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L30" s="282" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M30" s="283"/>
       <c r="N30" s="329" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O30" s="296"/>
       <c r="P30" s="297"/>
     </row>
     <row r="31" spans="12:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L31" s="284" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M31" s="285"/>
       <c r="N31" s="330" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O31" s="294"/>
       <c r="P31" s="295"/>
     </row>
     <row r="32" spans="12:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L32" s="286" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M32" s="287"/>
       <c r="N32" s="340" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O32" s="291"/>
       <c r="P32" s="292"/>
@@ -13338,33 +13453,33 @@
     <row r="29" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M30" s="282" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N30" s="283"/>
       <c r="O30" s="329" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P30" s="296"/>
       <c r="Q30" s="297"/>
     </row>
     <row r="31" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M31" s="284" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N31" s="285"/>
       <c r="O31" s="330" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P31" s="294"/>
       <c r="Q31" s="295"/>
     </row>
     <row r="32" spans="13:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M32" s="286" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N32" s="287"/>
       <c r="O32" s="331" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P32" s="291"/>
       <c r="Q32" s="292"/>
@@ -13393,33 +13508,33 @@
     <row r="28" spans="12:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="12:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L29" s="282" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M29" s="283"/>
       <c r="N29" s="329" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O29" s="296"/>
       <c r="P29" s="297"/>
     </row>
     <row r="30" spans="12:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L30" s="284" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M30" s="285"/>
       <c r="N30" s="330" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O30" s="294"/>
       <c r="P30" s="295"/>
     </row>
     <row r="31" spans="12:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L31" s="286" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M31" s="287"/>
       <c r="N31" s="331" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O31" s="291"/>
       <c r="P31" s="292"/>
@@ -13446,33 +13561,33 @@
   <sheetData>
     <row r="1" spans="20:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="T1" s="282" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U1" s="283"/>
       <c r="V1" s="329" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="W1" s="296"/>
       <c r="X1" s="297"/>
     </row>
     <row r="2" spans="20:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="T2" s="284" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U2" s="285"/>
       <c r="V2" s="330" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W2" s="294"/>
       <c r="X2" s="295"/>
     </row>
     <row r="3" spans="20:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="T3" s="286" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="U3" s="287"/>
       <c r="V3" s="331" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="W3" s="291"/>
       <c r="X3" s="292"/>
@@ -13501,33 +13616,33 @@
     <row r="20" spans="20:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="20:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="T21" s="282" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U21" s="283"/>
       <c r="V21" s="329" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W21" s="296"/>
       <c r="X21" s="297"/>
     </row>
     <row r="22" spans="20:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="T22" s="284" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U22" s="285"/>
       <c r="V22" s="330" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="W22" s="294"/>
       <c r="X22" s="295"/>
     </row>
     <row r="23" spans="20:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="T23" s="286" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="U23" s="287"/>
       <c r="V23" s="331" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W23" s="291"/>
       <c r="X23" s="292"/>
@@ -13555,33 +13670,33 @@
     <row r="1" spans="15:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="15:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O2" s="282" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P2" s="283"/>
       <c r="Q2" s="329" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R2" s="296"/>
       <c r="S2" s="297"/>
     </row>
     <row r="3" spans="15:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O3" s="284" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P3" s="285"/>
       <c r="Q3" s="330" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R3" s="294"/>
       <c r="S3" s="295"/>
     </row>
     <row r="4" spans="15:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O4" s="286" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P4" s="287"/>
       <c r="Q4" s="331" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R4" s="291"/>
       <c r="S4" s="292"/>
@@ -13609,33 +13724,33 @@
     <row r="26" spans="9:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="9:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I27" s="282" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J27" s="283"/>
       <c r="K27" s="329" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L27" s="296"/>
       <c r="M27" s="297"/>
     </row>
     <row r="28" spans="9:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I28" s="284" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J28" s="285"/>
       <c r="K28" s="330" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L28" s="294"/>
       <c r="M28" s="295"/>
     </row>
     <row r="29" spans="9:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I29" s="286" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J29" s="287"/>
       <c r="K29" s="331" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L29" s="291"/>
       <c r="M29" s="292"/>
@@ -13663,20 +13778,20 @@
     <row r="1" spans="18:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="18:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R2" s="284" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S2" s="330" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="T2" s="294"/>
       <c r="U2" s="295"/>
     </row>
     <row r="3" spans="18:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R3" s="342" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S3" s="331" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T3" s="291"/>
       <c r="U3" s="292"/>
@@ -13705,40 +13820,40 @@
     <row r="27" spans="7:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="7:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G28" s="282" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H28" s="283"/>
       <c r="I28" s="329" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J28" s="296"/>
       <c r="K28" s="297"/>
     </row>
     <row r="29" spans="7:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G29" s="284" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H29" s="285"/>
       <c r="I29" s="330" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J29" s="294"/>
       <c r="K29" s="295"/>
     </row>
     <row r="30" spans="7:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G30" s="286" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H30" s="287"/>
       <c r="I30" s="331" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J30" s="291"/>
       <c r="K30" s="292"/>
     </row>
     <row r="36" spans="14:14" x14ac:dyDescent="0.3">
       <c r="N36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -13822,16 +13937,16 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="282" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E2" s="283"/>
       <c r="F2" s="329" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G2" s="296"/>
       <c r="H2" s="297"/>
       <c r="I2" s="288" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J2" s="275"/>
       <c r="K2" s="2"/>
@@ -13859,16 +13974,16 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="284" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E3" s="285"/>
       <c r="F3" s="330" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G3" s="294"/>
       <c r="H3" s="295"/>
       <c r="I3" s="293" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J3" s="295"/>
       <c r="K3" s="2"/>
@@ -13896,16 +14011,16 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="286" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E4" s="287"/>
       <c r="F4" s="331" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G4" s="291"/>
       <c r="H4" s="292"/>
       <c r="I4" s="290" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J4" s="292"/>
       <c r="K4" s="2"/>
@@ -18505,46 +18620,46 @@
     </row>
     <row r="38" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="282" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C38" s="283"/>
       <c r="D38" s="288" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E38" s="289"/>
       <c r="F38" s="275"/>
       <c r="G38" s="288" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H38" s="275"/>
     </row>
     <row r="39" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="284" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C39" s="285"/>
       <c r="D39" s="293" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E39" s="294"/>
       <c r="F39" s="295"/>
       <c r="G39" s="293" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H39" s="295"/>
     </row>
     <row r="40" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="286" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C40" s="287"/>
       <c r="D40" s="290" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E40" s="291"/>
       <c r="F40" s="292"/>
       <c r="G40" s="290" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H40" s="292"/>
     </row>
@@ -18616,13 +18731,13 @@
         <v>59</v>
       </c>
       <c r="C2" s="299" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="300"/>
       <c r="E2" s="300"/>
       <c r="F2" s="301"/>
       <c r="G2" s="302" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H2" s="303"/>
       <c r="I2" s="304" t="s">
@@ -18652,13 +18767,13 @@
         <v>57</v>
       </c>
       <c r="C3" s="199" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D3" s="200"/>
       <c r="E3" s="200"/>
       <c r="F3" s="201"/>
       <c r="G3" s="142" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H3" s="143"/>
       <c r="I3" s="109" t="s">
@@ -18688,13 +18803,13 @@
         <v>54</v>
       </c>
       <c r="C4" s="199" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D4" s="200"/>
       <c r="E4" s="200"/>
       <c r="F4" s="201"/>
       <c r="G4" s="140" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H4" s="141"/>
       <c r="I4" s="109" t="s">
@@ -18724,13 +18839,13 @@
         <v>48</v>
       </c>
       <c r="C5" s="199" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D5" s="200"/>
       <c r="E5" s="200"/>
       <c r="F5" s="201"/>
       <c r="G5" s="142" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H5" s="143"/>
       <c r="I5" s="109" t="s">
@@ -18760,13 +18875,13 @@
         <v>44</v>
       </c>
       <c r="C6" s="199" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D6" s="200"/>
       <c r="E6" s="200"/>
       <c r="F6" s="201"/>
       <c r="G6" s="140" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H6" s="141"/>
       <c r="I6" s="109" t="s">
@@ -18796,13 +18911,13 @@
         <v>44</v>
       </c>
       <c r="C7" s="202" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D7" s="203"/>
       <c r="E7" s="203"/>
       <c r="F7" s="204"/>
       <c r="G7" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H7" s="143"/>
       <c r="I7" s="109" t="s">
@@ -18832,13 +18947,13 @@
         <v>41</v>
       </c>
       <c r="C8" s="202" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D8" s="203"/>
       <c r="E8" s="203"/>
       <c r="F8" s="204"/>
       <c r="G8" s="231" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H8" s="141"/>
       <c r="I8" s="109" t="s">
@@ -18868,13 +18983,13 @@
         <v>40</v>
       </c>
       <c r="C9" s="202" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9" s="203"/>
       <c r="E9" s="203"/>
       <c r="F9" s="204"/>
       <c r="G9" s="142" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H9" s="143"/>
       <c r="I9" s="109" t="s">
@@ -18904,13 +19019,13 @@
         <v>39</v>
       </c>
       <c r="C10" s="199" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D10" s="200"/>
       <c r="E10" s="200"/>
       <c r="F10" s="201"/>
       <c r="G10" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H10" s="141"/>
       <c r="I10" s="109" t="s">
@@ -18940,13 +19055,13 @@
         <v>36</v>
       </c>
       <c r="C11" s="199" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D11" s="200"/>
       <c r="E11" s="200"/>
       <c r="F11" s="201"/>
       <c r="G11" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H11" s="143"/>
       <c r="I11" s="109" t="s">
@@ -18976,13 +19091,13 @@
         <v>31</v>
       </c>
       <c r="C12" s="199" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D12" s="200"/>
       <c r="E12" s="200"/>
       <c r="F12" s="201"/>
       <c r="G12" s="197" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H12" s="141"/>
       <c r="I12" s="109" t="s">
@@ -19012,13 +19127,13 @@
         <v>30</v>
       </c>
       <c r="C13" s="199" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D13" s="200"/>
       <c r="E13" s="200"/>
       <c r="F13" s="201"/>
       <c r="G13" s="142" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H13" s="143"/>
       <c r="I13" s="109" t="s">
@@ -19048,13 +19163,13 @@
         <v>30</v>
       </c>
       <c r="C14" s="199" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D14" s="200"/>
       <c r="E14" s="200"/>
       <c r="F14" s="201"/>
       <c r="G14" s="140" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H14" s="141"/>
       <c r="I14" s="109" t="s">
@@ -19084,13 +19199,13 @@
         <v>29</v>
       </c>
       <c r="C15" s="199" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D15" s="200"/>
       <c r="E15" s="200"/>
       <c r="F15" s="201"/>
       <c r="G15" s="142" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H15" s="143"/>
       <c r="I15" s="109" t="s">
@@ -19120,13 +19235,13 @@
         <v>27</v>
       </c>
       <c r="C16" s="232" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D16" s="233"/>
       <c r="E16" s="233"/>
       <c r="F16" s="234"/>
       <c r="G16" s="214" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H16" s="141"/>
       <c r="I16" s="109" t="s">
@@ -19156,13 +19271,13 @@
         <v>27</v>
       </c>
       <c r="C17" s="256" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D17" s="257"/>
       <c r="E17" s="257"/>
       <c r="F17" s="258"/>
       <c r="G17" s="259" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H17" s="260"/>
       <c r="I17" s="113" t="s">
@@ -19206,7 +19321,7 @@
     </row>
     <row r="19" spans="1:20" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="216" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B19" s="88" t="s">
         <v>42</v>
@@ -19315,7 +19430,7 @@
         <v>17</v>
       </c>
       <c r="R20" s="145" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S20" s="146">
         <v>27</v>
@@ -19373,7 +19488,7 @@
         <v>21</v>
       </c>
       <c r="R21" s="147" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S21" s="148">
         <v>13</v>
@@ -19431,7 +19546,7 @@
         <v>20</v>
       </c>
       <c r="R22" s="147" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S22" s="148">
         <v>23</v>
@@ -19489,7 +19604,7 @@
         <v>17</v>
       </c>
       <c r="R23" s="149" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S23" s="150">
         <v>22</v>
@@ -19547,7 +19662,7 @@
         <v>21</v>
       </c>
       <c r="R24" s="147" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S24" s="148">
         <v>21</v>
@@ -19605,7 +19720,7 @@
         <v>17</v>
       </c>
       <c r="R25" s="147" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S25" s="148">
         <v>27</v>
@@ -19663,7 +19778,7 @@
         <v>20</v>
       </c>
       <c r="R26" s="147" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S26" s="148">
         <v>16</v>
@@ -19721,7 +19836,7 @@
         <v>20</v>
       </c>
       <c r="R27" s="147" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S27" s="148">
         <v>17</v>
@@ -19779,7 +19894,7 @@
         <v>28</v>
       </c>
       <c r="R28" s="147" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S28" s="148">
         <v>21</v>
@@ -19837,7 +19952,7 @@
         <v>18</v>
       </c>
       <c r="R29" s="190" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S29" s="148">
         <v>20</v>
@@ -19895,7 +20010,7 @@
         <v>23</v>
       </c>
       <c r="R30" s="147" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S30" s="148">
         <v>25</v>
@@ -19955,7 +20070,7 @@
         <v>19</v>
       </c>
       <c r="R31" s="147" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S31" s="148">
         <v>18</v>
@@ -20013,7 +20128,7 @@
         <v>19</v>
       </c>
       <c r="R32" s="147" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S32" s="148">
         <v>28</v>
@@ -20071,7 +20186,7 @@
         <v>16</v>
       </c>
       <c r="R33" s="147" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="S33" s="148">
         <v>26</v>
@@ -20129,7 +20244,7 @@
         <v>16</v>
       </c>
       <c r="R34" s="147" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S34" s="148">
         <v>22</v>
@@ -20187,7 +20302,7 @@
       </c>
       <c r="Q35" s="23"/>
       <c r="R35" s="151" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S35" s="152">
         <v>25</v>
@@ -20199,52 +20314,52 @@
         <v>45</v>
       </c>
       <c r="B36" s="154" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C36" s="154" t="s">
         <v>111</v>
       </c>
       <c r="D36" s="154" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E36" s="154" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F36" s="154" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G36" s="154" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H36" s="154" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I36" s="154" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J36" s="154" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K36" s="154" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L36" s="154" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M36" s="154" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N36" s="154" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O36" s="154" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P36" s="154" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q36" s="155" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R36" s="175"/>
       <c r="S36" s="176"/>
@@ -20313,49 +20428,49 @@
     </row>
     <row r="39" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="282" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C39" s="283"/>
       <c r="D39" s="288" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E39" s="289"/>
       <c r="F39" s="275"/>
       <c r="G39" s="288" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H39" s="275"/>
     </row>
     <row r="40" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="284" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C40" s="285"/>
       <c r="D40" s="293" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E40" s="294"/>
       <c r="F40" s="295"/>
       <c r="G40" s="293" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H40" s="295"/>
       <c r="N40" s="86" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="286" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C41" s="287"/>
       <c r="D41" s="290" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E41" s="291"/>
       <c r="F41" s="292"/>
       <c r="G41" s="290" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H41" s="292"/>
     </row>
@@ -20411,62 +20526,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="179" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="389"/>
-      <c r="B1" s="390" t="s">
-        <v>392</v>
+      <c r="A1" s="384"/>
+      <c r="B1" s="385" t="s">
+        <v>390</v>
       </c>
       <c r="C1" s="316" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="391" t="s">
+      <c r="D1" s="386" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="392" t="s">
+      <c r="E1" s="387" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="392"/>
-      <c r="G1" s="392"/>
-      <c r="I1" s="392" t="s">
+      <c r="F1" s="387"/>
+      <c r="G1" s="387"/>
+      <c r="I1" s="387" t="s">
         <v>142</v>
       </c>
-      <c r="J1" s="392" t="s">
-        <v>228</v>
+      <c r="J1" s="387" t="s">
+        <v>227</v>
       </c>
       <c r="K1" s="316"/>
-      <c r="L1" s="392" t="s">
+      <c r="L1" s="387" t="s">
         <v>147</v>
       </c>
-      <c r="M1" s="393"/>
-      <c r="N1" s="393"/>
-      <c r="O1" s="393"/>
-      <c r="P1" s="393"/>
-      <c r="Q1" s="393"/>
-      <c r="R1" s="394"/>
+      <c r="M1" s="388"/>
+      <c r="N1" s="388"/>
+      <c r="O1" s="388"/>
+      <c r="P1" s="388"/>
+      <c r="Q1" s="388"/>
+      <c r="R1" s="389"/>
       <c r="V1" s="180"/>
     </row>
     <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="395">
+      <c r="A2" s="390">
         <v>1</v>
       </c>
-      <c r="B2" s="396">
+      <c r="B2" s="391">
         <v>12</v>
       </c>
       <c r="C2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="397">
+      <c r="D2" s="392">
         <v>59</v>
       </c>
-      <c r="E2" s="398" t="s">
-        <v>393</v>
-      </c>
-      <c r="F2" s="399"/>
-      <c r="G2" s="399"/>
-      <c r="H2" s="400"/>
-      <c r="I2" s="401" t="s">
-        <v>394</v>
-      </c>
-      <c r="J2" s="401">
+      <c r="E2" s="393" t="s">
+        <v>391</v>
+      </c>
+      <c r="F2" s="394"/>
+      <c r="G2" s="394"/>
+      <c r="H2" s="395"/>
+      <c r="I2" s="396" t="s">
+        <v>392</v>
+      </c>
+      <c r="J2" s="396">
         <v>21</v>
       </c>
       <c r="K2" s="304" t="s">
@@ -20484,25 +20599,25 @@
       <c r="Q2" s="306" t="s">
         <v>72</v>
       </c>
-      <c r="R2" s="402"/>
+      <c r="R2" s="397"/>
       <c r="S2" s="2"/>
       <c r="U2" s="95"/>
       <c r="W2" s="86"/>
-      <c r="Y2" s="403" t="s">
+      <c r="Y2" s="398" t="s">
+        <v>393</v>
+      </c>
+      <c r="Z2" s="398" t="s">
+        <v>394</v>
+      </c>
+      <c r="AA2" s="398" t="s">
         <v>395</v>
       </c>
-      <c r="Z2" s="403" t="s">
-        <v>396</v>
-      </c>
-      <c r="AA2" s="403" t="s">
-        <v>397</v>
-      </c>
     </row>
     <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="395">
+      <c r="A3" s="390">
         <v>2</v>
       </c>
-      <c r="B3" s="396">
+      <c r="B3" s="391">
         <v>5</v>
       </c>
       <c r="C3" s="77" t="s">
@@ -20512,15 +20627,15 @@
         <v>57</v>
       </c>
       <c r="E3" s="202" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F3" s="203"/>
-      <c r="G3" s="404"/>
-      <c r="H3" s="405"/>
-      <c r="I3" s="406" t="s">
-        <v>399</v>
-      </c>
-      <c r="J3" s="406">
+      <c r="G3" s="399"/>
+      <c r="H3" s="400"/>
+      <c r="I3" s="401" t="s">
+        <v>397</v>
+      </c>
+      <c r="J3" s="401">
         <v>21</v>
       </c>
       <c r="K3" s="105" t="s">
@@ -20528,7 +20643,7 @@
       </c>
       <c r="L3" s="106"/>
       <c r="M3" s="107" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N3" s="108"/>
       <c r="O3" s="105" t="s">
@@ -20542,19 +20657,19 @@
       <c r="S3" s="2"/>
       <c r="U3" s="95"/>
       <c r="W3" s="86"/>
-      <c r="Y3" s="407">
+      <c r="Y3" s="402">
         <v>43746</v>
       </c>
-      <c r="Z3" s="408" t="s">
-        <v>401</v>
-      </c>
-      <c r="AA3" s="408"/>
+      <c r="Z3" s="403" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA3" s="403"/>
     </row>
     <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="395">
+      <c r="A4" s="390">
         <v>3</v>
       </c>
-      <c r="B4" s="396">
+      <c r="B4" s="391">
         <v>10</v>
       </c>
       <c r="C4" s="80" t="s">
@@ -20563,16 +20678,16 @@
       <c r="D4" s="333">
         <v>52</v>
       </c>
-      <c r="E4" s="409" t="s">
-        <v>402</v>
-      </c>
-      <c r="F4" s="410"/>
-      <c r="G4" s="410"/>
-      <c r="H4" s="411"/>
-      <c r="I4" s="406" t="s">
-        <v>403</v>
-      </c>
-      <c r="J4" s="412">
+      <c r="E4" s="404" t="s">
+        <v>400</v>
+      </c>
+      <c r="F4" s="405"/>
+      <c r="G4" s="405"/>
+      <c r="H4" s="406"/>
+      <c r="I4" s="401" t="s">
+        <v>401</v>
+      </c>
+      <c r="J4" s="407">
         <v>11</v>
       </c>
       <c r="K4" s="105" t="s">
@@ -20580,7 +20695,7 @@
       </c>
       <c r="L4" s="106"/>
       <c r="M4" s="107" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N4" s="108"/>
       <c r="O4" s="105" t="s">
@@ -20594,19 +20709,19 @@
       <c r="S4" s="2"/>
       <c r="U4" s="95"/>
       <c r="W4" s="86"/>
-      <c r="Y4" s="413" t="s">
-        <v>405</v>
-      </c>
-      <c r="Z4" s="408"/>
-      <c r="AA4" s="408" t="s">
-        <v>406</v>
+      <c r="Y4" s="408" t="s">
+        <v>403</v>
+      </c>
+      <c r="Z4" s="403"/>
+      <c r="AA4" s="403" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="395">
+      <c r="A5" s="390">
         <v>4</v>
       </c>
-      <c r="B5" s="396">
+      <c r="B5" s="391">
         <v>8</v>
       </c>
       <c r="C5" s="70" t="s">
@@ -20616,15 +20731,15 @@
         <v>52</v>
       </c>
       <c r="E5" s="202" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F5" s="203"/>
       <c r="G5" s="203"/>
-      <c r="H5" s="405"/>
-      <c r="I5" s="406" t="s">
-        <v>408</v>
-      </c>
-      <c r="J5" s="406">
+      <c r="H5" s="400"/>
+      <c r="I5" s="401" t="s">
+        <v>406</v>
+      </c>
+      <c r="J5" s="401">
         <v>11</v>
       </c>
       <c r="K5" s="105" t="s">
@@ -20646,19 +20761,19 @@
       <c r="S5" s="2"/>
       <c r="U5" s="95"/>
       <c r="W5" s="86"/>
-      <c r="Y5" s="413" t="s">
-        <v>409</v>
-      </c>
-      <c r="Z5" s="414" t="s">
-        <v>410</v>
-      </c>
-      <c r="AA5" s="414"/>
+      <c r="Y5" s="408" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z5" s="409" t="s">
+        <v>408</v>
+      </c>
+      <c r="AA5" s="409"/>
     </row>
     <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="395">
+      <c r="A6" s="390">
         <v>5</v>
       </c>
-      <c r="B6" s="396">
+      <c r="B6" s="391">
         <v>9</v>
       </c>
       <c r="C6" s="83" t="s">
@@ -20667,16 +20782,16 @@
       <c r="D6" s="333">
         <v>50</v>
       </c>
-      <c r="E6" s="415" t="s">
-        <v>411</v>
-      </c>
-      <c r="F6" s="404"/>
-      <c r="G6" s="404"/>
-      <c r="H6" s="405"/>
-      <c r="I6" s="406" t="s">
-        <v>412</v>
-      </c>
-      <c r="J6" s="412">
+      <c r="E6" s="410" t="s">
+        <v>409</v>
+      </c>
+      <c r="F6" s="399"/>
+      <c r="G6" s="399"/>
+      <c r="H6" s="400"/>
+      <c r="I6" s="401" t="s">
+        <v>410</v>
+      </c>
+      <c r="J6" s="407">
         <v>17</v>
       </c>
       <c r="K6" s="105" t="s">
@@ -20698,19 +20813,19 @@
       <c r="S6" s="2"/>
       <c r="U6" s="95"/>
       <c r="W6" s="86"/>
-      <c r="Y6" s="416" t="s">
-        <v>413</v>
-      </c>
-      <c r="Z6" s="417"/>
-      <c r="AA6" s="417" t="s">
-        <v>414</v>
+      <c r="Y6" s="411" t="s">
+        <v>411</v>
+      </c>
+      <c r="Z6" s="412"/>
+      <c r="AA6" s="412" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="395">
+      <c r="A7" s="390">
         <v>6</v>
       </c>
-      <c r="B7" s="396">
+      <c r="B7" s="391">
         <v>9</v>
       </c>
       <c r="C7" s="72" t="s">
@@ -20719,16 +20834,16 @@
       <c r="D7" s="333">
         <v>42</v>
       </c>
-      <c r="E7" s="415" t="s">
-        <v>415</v>
+      <c r="E7" s="410" t="s">
+        <v>413</v>
       </c>
       <c r="F7" s="203"/>
       <c r="G7" s="203"/>
-      <c r="H7" s="405"/>
-      <c r="I7" s="406" t="s">
-        <v>416</v>
-      </c>
-      <c r="J7" s="406">
+      <c r="H7" s="400"/>
+      <c r="I7" s="401" t="s">
+        <v>414</v>
+      </c>
+      <c r="J7" s="401">
         <v>3</v>
       </c>
       <c r="K7" s="105" t="s">
@@ -20750,19 +20865,19 @@
       <c r="S7" s="2"/>
       <c r="U7" s="95"/>
       <c r="W7" s="86"/>
-      <c r="Y7" s="416" t="s">
-        <v>417</v>
-      </c>
-      <c r="Z7" s="417" t="s">
-        <v>418</v>
-      </c>
-      <c r="AA7" s="417"/>
+      <c r="Y7" s="411" t="s">
+        <v>415</v>
+      </c>
+      <c r="Z7" s="412" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA7" s="412"/>
     </row>
     <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="395">
+      <c r="A8" s="390">
         <v>7</v>
       </c>
-      <c r="B8" s="418">
+      <c r="B8" s="413">
         <v>3</v>
       </c>
       <c r="C8" s="79" t="s">
@@ -20772,15 +20887,15 @@
         <v>42</v>
       </c>
       <c r="E8" s="202" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F8" s="203"/>
       <c r="G8" s="203"/>
-      <c r="H8" s="405"/>
-      <c r="I8" s="406" t="s">
-        <v>420</v>
-      </c>
-      <c r="J8" s="412">
+      <c r="H8" s="400"/>
+      <c r="I8" s="401" t="s">
+        <v>418</v>
+      </c>
+      <c r="J8" s="407">
         <v>2</v>
       </c>
       <c r="K8" s="105" t="s">
@@ -20802,21 +20917,21 @@
       <c r="S8" s="2"/>
       <c r="U8" s="95"/>
       <c r="W8" s="86"/>
-      <c r="Y8" s="419" t="s">
-        <v>421</v>
-      </c>
-      <c r="Z8" s="419" t="s">
-        <v>406</v>
-      </c>
-      <c r="AA8" s="420" t="s">
-        <v>422</v>
+      <c r="Y8" s="414" t="s">
+        <v>419</v>
+      </c>
+      <c r="Z8" s="414" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA8" s="415" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="395">
+      <c r="A9" s="390">
         <v>8</v>
       </c>
-      <c r="B9" s="396">
+      <c r="B9" s="391">
         <v>7</v>
       </c>
       <c r="C9" s="71" t="s">
@@ -20826,15 +20941,15 @@
         <v>39</v>
       </c>
       <c r="E9" s="202" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F9" s="203"/>
       <c r="G9" s="203"/>
-      <c r="H9" s="405"/>
-      <c r="I9" s="406" t="s">
-        <v>424</v>
-      </c>
-      <c r="J9" s="406">
+      <c r="H9" s="400"/>
+      <c r="I9" s="401" t="s">
+        <v>422</v>
+      </c>
+      <c r="J9" s="401">
         <v>4</v>
       </c>
       <c r="K9" s="105" t="s">
@@ -20856,37 +20971,37 @@
       <c r="S9" s="2"/>
       <c r="U9" s="95"/>
       <c r="W9" s="86"/>
-      <c r="Y9" s="421">
+      <c r="Y9" s="416">
         <v>43627</v>
       </c>
-      <c r="Z9" s="422" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA9" s="422"/>
+      <c r="Z9" s="417" t="s">
+        <v>423</v>
+      </c>
+      <c r="AA9" s="417"/>
     </row>
     <row r="10" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="395">
+      <c r="A10" s="390">
         <v>9</v>
       </c>
-      <c r="B10" s="396">
+      <c r="B10" s="391">
         <v>7</v>
       </c>
-      <c r="C10" s="423" t="s">
+      <c r="C10" s="418" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="333">
         <v>39</v>
       </c>
       <c r="E10" s="202" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F10" s="203"/>
       <c r="G10" s="203"/>
-      <c r="H10" s="405"/>
-      <c r="I10" s="406" t="s">
-        <v>427</v>
-      </c>
-      <c r="J10" s="412">
+      <c r="H10" s="400"/>
+      <c r="I10" s="401" t="s">
+        <v>425</v>
+      </c>
+      <c r="J10" s="407">
         <v>-4</v>
       </c>
       <c r="K10" s="105" t="s">
@@ -20908,37 +21023,37 @@
       <c r="S10" s="2"/>
       <c r="U10" s="95"/>
       <c r="W10" s="86"/>
-      <c r="Y10" s="421">
+      <c r="Y10" s="416">
         <v>43719</v>
       </c>
-      <c r="Z10" s="422"/>
-      <c r="AA10" s="422" t="s">
-        <v>428</v>
+      <c r="Z10" s="417"/>
+      <c r="AA10" s="417" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="395">
+      <c r="A11" s="390">
         <v>10</v>
       </c>
-      <c r="B11" s="396">
+      <c r="B11" s="391">
         <v>6</v>
       </c>
       <c r="C11" s="334" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D11" s="333">
         <v>36</v>
       </c>
       <c r="E11" s="202" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F11" s="203"/>
       <c r="G11" s="203"/>
-      <c r="H11" s="405"/>
-      <c r="I11" s="406" t="s">
-        <v>430</v>
-      </c>
-      <c r="J11" s="406">
+      <c r="H11" s="400"/>
+      <c r="I11" s="401" t="s">
+        <v>428</v>
+      </c>
+      <c r="J11" s="401">
         <v>-8</v>
       </c>
       <c r="K11" s="105" t="s">
@@ -20960,19 +21075,19 @@
       <c r="S11" s="2"/>
       <c r="U11" s="95"/>
       <c r="W11" s="86"/>
-      <c r="Y11" s="422" t="s">
-        <v>431</v>
-      </c>
-      <c r="Z11" s="422"/>
-      <c r="AA11" s="422" t="s">
-        <v>410</v>
+      <c r="Y11" s="417" t="s">
+        <v>429</v>
+      </c>
+      <c r="Z11" s="417"/>
+      <c r="AA11" s="417" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="395">
+      <c r="A12" s="390">
         <v>11</v>
       </c>
-      <c r="B12" s="418">
+      <c r="B12" s="413">
         <v>8</v>
       </c>
       <c r="C12" s="73" t="s">
@@ -20982,15 +21097,15 @@
         <v>34</v>
       </c>
       <c r="E12" s="202" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F12" s="203"/>
       <c r="G12" s="203"/>
-      <c r="H12" s="411"/>
-      <c r="I12" s="406" t="s">
-        <v>433</v>
-      </c>
-      <c r="J12" s="412">
+      <c r="H12" s="406"/>
+      <c r="I12" s="401" t="s">
+        <v>431</v>
+      </c>
+      <c r="J12" s="407">
         <v>-8</v>
       </c>
       <c r="K12" s="105" t="s">
@@ -21012,19 +21127,19 @@
       <c r="S12" s="2"/>
       <c r="U12" s="95"/>
       <c r="W12" s="86"/>
-      <c r="Y12" s="422" t="s">
-        <v>434</v>
-      </c>
-      <c r="Z12" s="422" t="s">
-        <v>428</v>
-      </c>
-      <c r="AA12" s="422"/>
+      <c r="Y12" s="417" t="s">
+        <v>432</v>
+      </c>
+      <c r="Z12" s="417" t="s">
+        <v>426</v>
+      </c>
+      <c r="AA12" s="417"/>
     </row>
     <row r="13" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="424">
+      <c r="A13" s="419">
         <v>12</v>
       </c>
-      <c r="B13" s="396">
+      <c r="B13" s="391">
         <v>1</v>
       </c>
       <c r="C13" s="75" t="s">
@@ -21034,15 +21149,15 @@
         <v>34</v>
       </c>
       <c r="E13" s="202" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F13" s="203"/>
       <c r="G13" s="203"/>
-      <c r="H13" s="405"/>
-      <c r="I13" s="406" t="s">
-        <v>435</v>
-      </c>
-      <c r="J13" s="406">
+      <c r="H13" s="400"/>
+      <c r="I13" s="401" t="s">
+        <v>433</v>
+      </c>
+      <c r="J13" s="401">
         <v>-12</v>
       </c>
       <c r="K13" s="105" t="s">
@@ -21064,19 +21179,19 @@
       <c r="S13" s="2"/>
       <c r="U13" s="95"/>
       <c r="W13" s="86"/>
-      <c r="Y13" s="425">
+      <c r="Y13" s="420">
         <v>43658</v>
       </c>
-      <c r="Z13" s="426" t="s">
-        <v>436</v>
-      </c>
-      <c r="AA13" s="426"/>
+      <c r="Z13" s="421" t="s">
+        <v>434</v>
+      </c>
+      <c r="AA13" s="421"/>
     </row>
     <row r="14" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="395">
+      <c r="A14" s="390">
         <v>13</v>
       </c>
-      <c r="B14" s="418">
+      <c r="B14" s="413">
         <v>6</v>
       </c>
       <c r="C14" s="89" t="s">
@@ -21086,15 +21201,15 @@
         <v>30</v>
       </c>
       <c r="E14" s="202" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F14" s="203"/>
       <c r="G14" s="203"/>
-      <c r="H14" s="405"/>
-      <c r="I14" s="427" t="s">
-        <v>438</v>
-      </c>
-      <c r="J14" s="412">
+      <c r="H14" s="400"/>
+      <c r="I14" s="422" t="s">
+        <v>436</v>
+      </c>
+      <c r="J14" s="407">
         <v>-13</v>
       </c>
       <c r="K14" s="105" t="s">
@@ -21116,19 +21231,19 @@
       <c r="S14" s="2"/>
       <c r="U14" s="95"/>
       <c r="W14" s="86"/>
-      <c r="Y14" s="425">
+      <c r="Y14" s="420">
         <v>43781</v>
       </c>
-      <c r="Z14" s="426"/>
-      <c r="AA14" s="426" t="s">
-        <v>439</v>
+      <c r="Z14" s="421"/>
+      <c r="AA14" s="421" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="424">
+      <c r="A15" s="419">
         <v>14</v>
       </c>
-      <c r="B15" s="418">
+      <c r="B15" s="413">
         <v>6</v>
       </c>
       <c r="C15" s="69" t="s">
@@ -21138,15 +21253,15 @@
         <v>29</v>
       </c>
       <c r="E15" s="202" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F15" s="203"/>
       <c r="G15" s="203"/>
-      <c r="H15" s="405"/>
-      <c r="I15" s="406" t="s">
-        <v>441</v>
-      </c>
-      <c r="J15" s="406">
+      <c r="H15" s="400"/>
+      <c r="I15" s="401" t="s">
+        <v>439</v>
+      </c>
+      <c r="J15" s="401">
         <v>-9</v>
       </c>
       <c r="K15" s="105" t="s">
@@ -21168,43 +21283,43 @@
       <c r="S15" s="2"/>
       <c r="U15" s="95"/>
       <c r="W15" s="86"/>
-      <c r="Y15" s="428">
+      <c r="Y15" s="423">
         <v>43922</v>
       </c>
-      <c r="Z15" s="429"/>
-      <c r="AA15" s="429" t="s">
-        <v>442</v>
+      <c r="Z15" s="424"/>
+      <c r="AA15" s="424" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="395">
+      <c r="A16" s="390">
         <v>15</v>
       </c>
-      <c r="B16" s="396">
+      <c r="B16" s="391">
         <v>6</v>
       </c>
-      <c r="C16" s="430" t="s">
+      <c r="C16" s="425" t="s">
         <v>129</v>
       </c>
       <c r="D16" s="333">
         <v>29</v>
       </c>
       <c r="E16" s="202" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F16" s="203"/>
       <c r="G16" s="203"/>
-      <c r="H16" s="405"/>
-      <c r="I16" s="406" t="s">
-        <v>443</v>
-      </c>
-      <c r="J16" s="431">
+      <c r="H16" s="400"/>
+      <c r="I16" s="401" t="s">
+        <v>441</v>
+      </c>
+      <c r="J16" s="426">
         <v>-17</v>
       </c>
-      <c r="K16" s="432" t="s">
-        <v>321</v>
-      </c>
-      <c r="L16" s="433"/>
+      <c r="K16" s="427" t="s">
+        <v>320</v>
+      </c>
+      <c r="L16" s="428"/>
       <c r="M16" s="138" t="s">
         <v>58</v>
       </c>
@@ -21220,33 +21335,33 @@
       <c r="S16" s="2"/>
       <c r="U16" s="95"/>
       <c r="W16" s="86"/>
-      <c r="Y16" s="428"/>
-      <c r="Z16" s="429"/>
-      <c r="AA16" s="429"/>
+      <c r="Y16" s="423"/>
+      <c r="Z16" s="424"/>
+      <c r="AA16" s="424"/>
     </row>
     <row r="17" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="434">
+      <c r="A17" s="429">
         <v>16</v>
       </c>
-      <c r="B17" s="435">
+      <c r="B17" s="430">
         <v>2</v>
       </c>
       <c r="C17" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="436">
+      <c r="D17" s="431">
         <v>25</v>
       </c>
-      <c r="E17" s="437" t="s">
-        <v>499</v>
+      <c r="E17" s="432" t="s">
+        <v>497</v>
       </c>
       <c r="F17" s="249"/>
       <c r="G17" s="249"/>
-      <c r="H17" s="438"/>
-      <c r="I17" s="439" t="s">
-        <v>444</v>
-      </c>
-      <c r="J17" s="439">
+      <c r="H17" s="433"/>
+      <c r="I17" s="434" t="s">
+        <v>442</v>
+      </c>
+      <c r="J17" s="434">
         <v>-19</v>
       </c>
       <c r="K17" s="164" t="s">
@@ -21258,7 +21373,7 @@
       </c>
       <c r="N17" s="165"/>
       <c r="O17" s="164" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P17" s="270"/>
       <c r="Q17" s="138" t="s">
@@ -21268,13 +21383,13 @@
       <c r="S17" s="2"/>
       <c r="U17" s="95"/>
       <c r="W17" s="86"/>
-      <c r="Y17" s="440">
+      <c r="Y17" s="435">
         <v>43952</v>
       </c>
-      <c r="Z17" s="441" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA17" s="441"/>
+      <c r="Z17" s="436" t="s">
+        <v>444</v>
+      </c>
+      <c r="AA17" s="436"/>
     </row>
     <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="98"/>
@@ -21296,17 +21411,17 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-      <c r="Y18" s="442">
+      <c r="Y18" s="437">
         <v>44044</v>
       </c>
-      <c r="Z18" s="443" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA18" s="443"/>
+      <c r="Z18" s="438" t="s">
+        <v>445</v>
+      </c>
+      <c r="AA18" s="438"/>
     </row>
     <row r="19" spans="1:27" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="444" t="s">
-        <v>152</v>
+      <c r="C19" s="439" t="s">
+        <v>151</v>
       </c>
       <c r="D19" s="88" t="s">
         <v>42</v>
@@ -21351,7 +21466,7 @@
         <v>14</v>
       </c>
       <c r="R19" s="335" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S19" s="277" t="s">
         <v>4</v>
@@ -21363,14 +21478,14 @@
         <v>48</v>
       </c>
       <c r="W19" s="86"/>
-      <c r="Y19" s="445" t="s">
-        <v>448</v>
-      </c>
-      <c r="Z19" s="445" t="s">
-        <v>442</v>
-      </c>
-      <c r="AA19" s="445" t="s">
+      <c r="Y19" s="440" t="s">
         <v>446</v>
+      </c>
+      <c r="Z19" s="440" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA19" s="440" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21378,16 +21493,16 @@
         <v>42</v>
       </c>
       <c r="D20" s="159"/>
-      <c r="E20" s="446" t="s">
+      <c r="E20" s="441" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="447" t="s">
+      <c r="G20" s="442" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="448" t="s">
+      <c r="H20" s="443" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="170" t="s">
@@ -21399,7 +21514,7 @@
       <c r="K20" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="448" t="s">
+      <c r="L20" s="443" t="s">
         <v>16</v>
       </c>
       <c r="M20" s="25" t="s">
@@ -21417,25 +21532,25 @@
       <c r="Q20" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="R20" s="449" t="s">
+      <c r="R20" s="444" t="s">
         <v>17</v>
       </c>
-      <c r="S20" s="450" t="s">
+      <c r="S20" s="445" t="s">
         <v>23</v>
       </c>
       <c r="T20" s="145" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U20" s="146">
         <v>17</v>
       </c>
       <c r="W20" s="86"/>
-      <c r="Y20" s="429" t="s">
-        <v>450</v>
-      </c>
-      <c r="Z20" s="429"/>
-      <c r="AA20" s="429" t="s">
-        <v>425</v>
+      <c r="Y20" s="424" t="s">
+        <v>448</v>
+      </c>
+      <c r="Z20" s="424"/>
+      <c r="AA20" s="424" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21458,7 +21573,7 @@
       <c r="I21" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="451" t="s">
+      <c r="J21" s="446" t="s">
         <v>20</v>
       </c>
       <c r="K21" s="5" t="s">
@@ -21467,7 +21582,7 @@
       <c r="L21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M21" s="452" t="s">
+      <c r="M21" s="447" t="s">
         <v>16</v>
       </c>
       <c r="N21" s="47" t="s">
@@ -21489,25 +21604,25 @@
         <v>23</v>
       </c>
       <c r="T21" s="147" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="U21" s="148">
         <v>14</v>
       </c>
       <c r="W21" s="86"/>
-      <c r="Y21" s="429" t="s">
-        <v>452</v>
-      </c>
-      <c r="Z21" s="429" t="s">
-        <v>414</v>
-      </c>
-      <c r="AA21" s="429"/>
+      <c r="Y21" s="424" t="s">
+        <v>450</v>
+      </c>
+      <c r="Z21" s="424" t="s">
+        <v>412</v>
+      </c>
+      <c r="AA21" s="424"/>
     </row>
     <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="453" t="s">
+      <c r="D22" s="448" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -21526,13 +21641,13 @@
       <c r="J22" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="452" t="s">
+      <c r="K22" s="447" t="s">
         <v>21</v>
       </c>
       <c r="L22" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="M22" s="454" t="s">
+      <c r="M22" s="449" t="s">
         <v>18</v>
       </c>
       <c r="N22" s="47" t="s">
@@ -21542,30 +21657,30 @@
         <v>20</v>
       </c>
       <c r="P22" s="52" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q22" s="454" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q22" s="449" t="s">
         <v>19</v>
       </c>
-      <c r="R22" s="455" t="s">
+      <c r="R22" s="450" t="s">
         <v>15</v>
       </c>
       <c r="S22" s="319" t="s">
         <v>20</v>
       </c>
       <c r="T22" s="147" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="U22" s="148">
         <v>28</v>
       </c>
       <c r="W22" s="86"/>
-      <c r="Y22" s="456" t="s">
-        <v>454</v>
-      </c>
-      <c r="Z22" s="456"/>
-      <c r="AA22" s="456" t="s">
-        <v>455</v>
+      <c r="Y22" s="451" t="s">
+        <v>452</v>
+      </c>
+      <c r="Z22" s="451"/>
+      <c r="AA22" s="451" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21578,7 +21693,7 @@
       <c r="E23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="454" t="s">
+      <c r="F23" s="449" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="160"/>
@@ -21603,7 +21718,7 @@
       <c r="N23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O23" s="454" t="s">
+      <c r="O23" s="449" t="s">
         <v>27</v>
       </c>
       <c r="P23" s="5" t="s">
@@ -21612,26 +21727,26 @@
       <c r="Q23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R23" s="455" t="s">
+      <c r="R23" s="450" t="s">
         <v>15</v>
       </c>
-      <c r="S23" s="457" t="s">
+      <c r="S23" s="452" t="s">
         <v>20</v>
       </c>
       <c r="T23" s="149" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="U23" s="150">
         <v>21</v>
       </c>
       <c r="W23" s="86"/>
-      <c r="Y23" s="458">
+      <c r="Y23" s="453">
         <v>43833</v>
       </c>
-      <c r="Z23" s="459" t="s">
-        <v>439</v>
-      </c>
-      <c r="AA23" s="459"/>
+      <c r="Z23" s="454" t="s">
+        <v>437</v>
+      </c>
+      <c r="AA23" s="454"/>
     </row>
     <row r="24" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="71" t="s">
@@ -21643,7 +21758,7 @@
       <c r="E24" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="452" t="s">
+      <c r="F24" s="447" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
@@ -21662,41 +21777,41 @@
       <c r="L24" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="M24" s="460" t="s">
+      <c r="M24" s="455" t="s">
         <v>19</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O24" s="454" t="s">
+      <c r="O24" s="449" t="s">
         <v>19</v>
       </c>
       <c r="P24" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="Q24" s="452" t="s">
+      <c r="Q24" s="447" t="s">
         <v>21</v>
       </c>
-      <c r="R24" s="455" t="s">
+      <c r="R24" s="450" t="s">
         <v>15</v>
       </c>
-      <c r="S24" s="388" t="s">
+      <c r="S24" s="383" t="s">
         <v>16</v>
       </c>
       <c r="T24" s="147" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="U24" s="148">
         <v>27</v>
       </c>
       <c r="W24" s="86"/>
-      <c r="Y24" s="458">
+      <c r="Y24" s="453">
         <v>44046</v>
       </c>
-      <c r="Z24" s="459" t="s">
-        <v>458</v>
-      </c>
-      <c r="AA24" s="459"/>
+      <c r="Z24" s="454" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA24" s="454"/>
     </row>
     <row r="25" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="72" t="s">
@@ -21730,44 +21845,44 @@
       <c r="M25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N25" s="454" t="s">
+      <c r="N25" s="449" t="s">
         <v>27</v>
       </c>
       <c r="O25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P25" s="460" t="s">
+      <c r="P25" s="455" t="s">
         <v>18</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="R25" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="S25" s="461" t="s">
+      <c r="S25" s="456" t="s">
         <v>18</v>
       </c>
       <c r="T25" s="147" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="U25" s="148">
         <v>30</v>
       </c>
       <c r="W25" s="86"/>
-      <c r="Y25" s="459" t="s">
-        <v>461</v>
-      </c>
-      <c r="Z25" s="459"/>
-      <c r="AA25" s="459" t="s">
-        <v>418</v>
+      <c r="Y25" s="454" t="s">
+        <v>459</v>
+      </c>
+      <c r="Z25" s="454"/>
+      <c r="AA25" s="454" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="462" t="s">
+      <c r="D26" s="457" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="169" t="s">
@@ -21782,14 +21897,14 @@
       <c r="H26" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="463" t="s">
+      <c r="I26" s="458" t="s">
         <v>20</v>
       </c>
       <c r="J26" s="161"/>
-      <c r="K26" s="447" t="s">
+      <c r="K26" s="442" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="448" t="s">
+      <c r="L26" s="443" t="s">
         <v>21</v>
       </c>
       <c r="M26" s="25" t="s">
@@ -21807,25 +21922,25 @@
       <c r="Q26" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="R26" s="464" t="s">
+      <c r="R26" s="459" t="s">
         <v>21</v>
       </c>
-      <c r="S26" s="449" t="s">
+      <c r="S26" s="444" t="s">
         <v>18</v>
       </c>
       <c r="T26" s="147" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="U26" s="148">
         <v>19</v>
       </c>
       <c r="W26" s="86"/>
-      <c r="Y26" s="465">
+      <c r="Y26" s="460">
         <v>43925</v>
       </c>
-      <c r="Z26" s="466"/>
-      <c r="AA26" s="466" t="s">
-        <v>396</v>
+      <c r="Z26" s="461"/>
+      <c r="AA26" s="461" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21841,13 +21956,13 @@
       <c r="F27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="451" t="s">
+      <c r="G27" s="446" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="452" t="s">
+      <c r="H27" s="447" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="451" t="s">
+      <c r="I27" s="446" t="s">
         <v>31</v>
       </c>
       <c r="J27" s="52" t="s">
@@ -21872,26 +21987,26 @@
       <c r="Q27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R27" s="388" t="s">
+      <c r="R27" s="383" t="s">
         <v>26</v>
       </c>
-      <c r="S27" s="455" t="s">
+      <c r="S27" s="450" t="s">
         <v>18</v>
       </c>
       <c r="T27" s="147" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="U27" s="148">
         <v>21</v>
       </c>
       <c r="W27" s="86"/>
-      <c r="Y27" s="466" t="s">
-        <v>464</v>
-      </c>
-      <c r="Z27" s="466" t="s">
-        <v>422</v>
-      </c>
-      <c r="AA27" s="466"/>
+      <c r="Y27" s="461" t="s">
+        <v>462</v>
+      </c>
+      <c r="Z27" s="461" t="s">
+        <v>420</v>
+      </c>
+      <c r="AA27" s="461"/>
     </row>
     <row r="28" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="76" t="s">
@@ -21912,7 +22027,7 @@
       <c r="H28" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="454" t="s">
+      <c r="I28" s="449" t="s">
         <v>18</v>
       </c>
       <c r="J28" s="7" t="s">
@@ -21923,12 +22038,12 @@
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="N28" s="452" t="s">
+        <v>463</v>
+      </c>
+      <c r="N28" s="447" t="s">
         <v>16</v>
       </c>
-      <c r="O28" s="452" t="s">
+      <c r="O28" s="447" t="s">
         <v>16</v>
       </c>
       <c r="P28" s="5" t="s">
@@ -21944,18 +22059,18 @@
         <v>23</v>
       </c>
       <c r="T28" s="147" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="U28" s="148">
         <v>27</v>
       </c>
       <c r="W28" s="86"/>
-      <c r="Y28" s="466" t="s">
-        <v>467</v>
-      </c>
-      <c r="Z28" s="466"/>
-      <c r="AA28" s="466" t="s">
-        <v>436</v>
+      <c r="Y28" s="461" t="s">
+        <v>465</v>
+      </c>
+      <c r="Z28" s="461"/>
+      <c r="AA28" s="461" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21968,19 +22083,19 @@
       <c r="E29" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="452" t="s">
+      <c r="F29" s="447" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="52" t="s">
         <v>18</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I29" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="454" t="s">
+      <c r="J29" s="449" t="s">
         <v>18</v>
       </c>
       <c r="K29" s="7" t="s">
@@ -21990,7 +22105,7 @@
         <v>25</v>
       </c>
       <c r="M29" s="4"/>
-      <c r="N29" s="451" t="s">
+      <c r="N29" s="446" t="s">
         <v>20</v>
       </c>
       <c r="O29" s="5" t="s">
@@ -22002,25 +22117,25 @@
       <c r="Q29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R29" s="467" t="s">
+      <c r="R29" s="462" t="s">
         <v>16</v>
       </c>
-      <c r="S29" s="373" t="s">
+      <c r="S29" s="369" t="s">
         <v>16</v>
       </c>
       <c r="T29" s="190" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="U29" s="148">
         <v>27</v>
       </c>
       <c r="W29" s="86"/>
-      <c r="Y29" s="468">
+      <c r="Y29" s="463">
         <v>43987</v>
       </c>
-      <c r="Z29" s="469"/>
-      <c r="AA29" s="469" t="s">
-        <v>447</v>
+      <c r="Z29" s="464"/>
+      <c r="AA29" s="464" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22030,13 +22145,13 @@
       <c r="D30" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="451" t="s">
+      <c r="E30" s="446" t="s">
         <v>20</v>
       </c>
       <c r="F30" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="454" t="s">
+      <c r="G30" s="449" t="s">
         <v>25</v>
       </c>
       <c r="H30" s="7" t="s">
@@ -22048,7 +22163,7 @@
       <c r="J30" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K30" s="460" t="s">
+      <c r="K30" s="455" t="s">
         <v>18</v>
       </c>
       <c r="L30" s="7" t="s">
@@ -22061,32 +22176,32 @@
       <c r="O30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="P30" s="452" t="s">
+      <c r="P30" s="447" t="s">
         <v>21</v>
       </c>
       <c r="Q30" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="R30" s="455" t="s">
+      <c r="R30" s="450" t="s">
         <v>19</v>
       </c>
       <c r="S30" s="52" t="s">
         <v>17</v>
       </c>
       <c r="T30" s="147" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="U30" s="148">
         <v>33</v>
       </c>
       <c r="W30" s="86"/>
-      <c r="Y30" s="468">
+      <c r="Y30" s="463">
         <v>44079</v>
       </c>
-      <c r="Z30" s="469" t="s">
-        <v>455</v>
-      </c>
-      <c r="AA30" s="469"/>
+      <c r="Z30" s="464" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA30" s="464"/>
     </row>
     <row r="31" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="79" t="s">
@@ -22098,7 +22213,7 @@
       <c r="E31" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="452" t="s">
+      <c r="F31" s="447" t="s">
         <v>21</v>
       </c>
       <c r="G31" s="5" t="s">
@@ -22122,24 +22237,24 @@
       <c r="M31" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="N31" s="452" t="s">
+      <c r="N31" s="447" t="s">
         <v>26</v>
       </c>
       <c r="O31" s="4"/>
-      <c r="P31" s="451" t="s">
+      <c r="P31" s="446" t="s">
         <v>20</v>
       </c>
       <c r="Q31" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="R31" s="455" t="s">
+      <c r="R31" s="450" t="s">
         <v>25</v>
       </c>
       <c r="S31" s="319" t="s">
         <v>23</v>
       </c>
       <c r="T31" s="147" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="U31" s="148">
         <v>24</v>
@@ -22153,10 +22268,10 @@
       <c r="D32" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="470" t="s">
+      <c r="E32" s="465" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="452" t="s">
+      <c r="F32" s="447" t="s">
         <v>21</v>
       </c>
       <c r="G32" s="52" t="s">
@@ -22190,14 +22305,14 @@
       <c r="Q32" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="R32" s="461" t="s">
+      <c r="R32" s="456" t="s">
         <v>18</v>
       </c>
-      <c r="S32" s="461" t="s">
+      <c r="S32" s="456" t="s">
         <v>15</v>
       </c>
       <c r="T32" s="147" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="U32" s="148">
         <v>32</v>
@@ -22232,13 +22347,13 @@
       <c r="K33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L33" s="452" t="s">
+      <c r="L33" s="447" t="s">
         <v>16</v>
       </c>
-      <c r="M33" s="471" t="s">
+      <c r="M33" s="466" t="s">
         <v>28</v>
       </c>
-      <c r="N33" s="451" t="s">
+      <c r="N33" s="446" t="s">
         <v>35</v>
       </c>
       <c r="O33" s="5" t="s">
@@ -22251,11 +22366,11 @@
       <c r="R33" s="319" t="s">
         <v>23</v>
       </c>
-      <c r="S33" s="455" t="s">
+      <c r="S33" s="450" t="s">
         <v>19</v>
       </c>
       <c r="T33" s="147" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="U33" s="148">
         <v>17</v>
@@ -22264,9 +22379,9 @@
     </row>
     <row r="34" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C34" s="334" t="s">
-        <v>218</v>
-      </c>
-      <c r="D34" s="472" t="s">
+        <v>217</v>
+      </c>
+      <c r="D34" s="467" t="s">
         <v>16</v>
       </c>
       <c r="E34" s="167" t="s">
@@ -22281,13 +22396,13 @@
       <c r="H34" s="173" t="s">
         <v>22</v>
       </c>
-      <c r="I34" s="473" t="s">
+      <c r="I34" s="468" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="474" t="s">
+      <c r="J34" s="469" t="s">
         <v>16</v>
       </c>
-      <c r="K34" s="475" t="s">
+      <c r="K34" s="470" t="s">
         <v>18</v>
       </c>
       <c r="L34" s="184" t="s">
@@ -22309,11 +22424,11 @@
         <v>18</v>
       </c>
       <c r="R34" s="267"/>
-      <c r="S34" s="476" t="s">
+      <c r="S34" s="471" t="s">
         <v>18</v>
       </c>
       <c r="T34" s="261" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="U34" s="262">
         <v>23</v>
@@ -22327,7 +22442,7 @@
       <c r="D35" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="473" t="s">
+      <c r="E35" s="468" t="s">
         <v>30</v>
       </c>
       <c r="F35" s="167" t="s">
@@ -22336,7 +22451,7 @@
       <c r="G35" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="H35" s="474" t="s">
+      <c r="H35" s="469" t="s">
         <v>16</v>
       </c>
       <c r="I35" s="184" t="s">
@@ -22363,15 +22478,15 @@
       <c r="P35" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="Q35" s="475" t="s">
+      <c r="Q35" s="470" t="s">
         <v>17</v>
       </c>
-      <c r="R35" s="477" t="s">
+      <c r="R35" s="472" t="s">
         <v>16</v>
       </c>
       <c r="S35" s="267"/>
       <c r="T35" s="261" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="U35" s="262">
         <v>30</v>
@@ -22379,56 +22494,56 @@
       <c r="W35" s="86"/>
     </row>
     <row r="36" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="C36" s="478" t="s">
+      <c r="C36" s="473" t="s">
         <v>45</v>
       </c>
       <c r="D36" s="273" t="s">
+        <v>473</v>
+      </c>
+      <c r="E36" s="154" t="s">
+        <v>474</v>
+      </c>
+      <c r="F36" s="154" t="s">
         <v>475</v>
       </c>
-      <c r="E36" s="154" t="s">
+      <c r="G36" s="154" t="s">
         <v>476</v>
       </c>
-      <c r="F36" s="154" t="s">
+      <c r="H36" s="154" t="s">
         <v>477</v>
       </c>
-      <c r="G36" s="154" t="s">
+      <c r="I36" s="154" t="s">
         <v>478</v>
       </c>
-      <c r="H36" s="154" t="s">
+      <c r="J36" s="154" t="s">
         <v>479</v>
       </c>
-      <c r="I36" s="154" t="s">
+      <c r="K36" s="154" t="s">
         <v>480</v>
       </c>
-      <c r="J36" s="154" t="s">
+      <c r="L36" s="154" t="s">
         <v>481</v>
       </c>
-      <c r="K36" s="154" t="s">
+      <c r="M36" s="154" t="s">
         <v>482</v>
       </c>
-      <c r="L36" s="154" t="s">
+      <c r="N36" s="154" t="s">
         <v>483</v>
       </c>
-      <c r="M36" s="154" t="s">
+      <c r="O36" s="154" t="s">
         <v>484</v>
       </c>
-      <c r="N36" s="154" t="s">
+      <c r="P36" s="154" t="s">
         <v>485</v>
       </c>
-      <c r="O36" s="154" t="s">
+      <c r="Q36" s="154" t="s">
         <v>486</v>
       </c>
-      <c r="P36" s="154" t="s">
+      <c r="R36" s="154" t="s">
         <v>487</v>
       </c>
-      <c r="Q36" s="154" t="s">
+      <c r="S36" s="281" t="s">
         <v>488</v>
-      </c>
-      <c r="R36" s="154" t="s">
-        <v>489</v>
-      </c>
-      <c r="S36" s="281" t="s">
-        <v>490</v>
       </c>
       <c r="T36" s="274"/>
       <c r="U36" s="279"/>
@@ -22492,55 +22607,55 @@
     <row r="38" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D39" s="282" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E39" s="283"/>
       <c r="F39" s="288" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G39" s="289"/>
       <c r="H39" s="275"/>
       <c r="I39" s="288" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J39" s="275"/>
     </row>
     <row r="40" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D40" s="284" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E40" s="285"/>
       <c r="F40" s="293" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G40" s="294"/>
       <c r="H40" s="295"/>
       <c r="I40" s="293" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J40" s="295"/>
     </row>
     <row r="41" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D41" s="286" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E41" s="287"/>
       <c r="F41" s="290" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G41" s="291"/>
       <c r="H41" s="292"/>
       <c r="I41" s="290" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J41" s="292"/>
     </row>
     <row r="44" spans="3:23" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="C44" s="479" t="s">
-        <v>496</v>
-      </c>
-      <c r="D44" s="480"/>
-      <c r="E44" s="481"/>
+      <c r="C44" s="474" t="s">
+        <v>494</v>
+      </c>
+      <c r="D44" s="475"/>
+      <c r="E44" s="476"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22555,8 +22670,8 @@
   </sheetPr>
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22585,10 +22700,10 @@
   <sheetData>
     <row r="1" spans="1:25" s="179" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="353" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B1" s="354" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C1" s="178" t="s">
         <v>139</v>
@@ -22605,7 +22720,7 @@
         <v>142</v>
       </c>
       <c r="I1" s="178" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J1" s="316"/>
       <c r="K1" s="178" t="s">
@@ -22614,7 +22729,7 @@
       <c r="V1" s="180"/>
     </row>
     <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="385">
+      <c r="A2" s="380">
         <v>1</v>
       </c>
       <c r="B2" s="355">
@@ -22624,21 +22739,21 @@
         <v>3</v>
       </c>
       <c r="D2" s="333">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" s="312" t="s">
-        <v>540</v>
+        <v>606</v>
       </c>
       <c r="F2" s="313"/>
       <c r="G2" s="313"/>
       <c r="H2" s="326" t="s">
-        <v>541</v>
+        <v>607</v>
       </c>
       <c r="I2" s="326">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" s="107" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K2" s="106"/>
       <c r="L2" s="107" t="s">
@@ -22646,42 +22761,42 @@
       </c>
       <c r="M2" s="108"/>
       <c r="N2" s="105" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O2" s="108"/>
       <c r="P2" s="107" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q2" s="268"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="382"/>
-      <c r="T2" s="381"/>
-      <c r="U2" s="383"/>
-      <c r="V2" s="381"/>
-      <c r="W2" s="381"/>
-      <c r="X2" s="381"/>
-      <c r="Y2" s="381"/>
+      <c r="S2" s="377"/>
+      <c r="T2" s="376"/>
+      <c r="U2" s="378"/>
+      <c r="V2" s="376"/>
+      <c r="W2" s="376"/>
+      <c r="X2" s="376"/>
+      <c r="Y2" s="376"/>
     </row>
     <row r="3" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="385">
+      <c r="A3" s="380">
         <v>2</v>
       </c>
       <c r="B3" s="355">
         <v>11</v>
       </c>
-      <c r="C3" s="375" t="s">
-        <v>313</v>
+      <c r="C3" s="371" t="s">
+        <v>312</v>
       </c>
       <c r="D3" s="333">
         <v>18</v>
       </c>
       <c r="E3" s="202" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="F3" s="203"/>
       <c r="G3" s="203"/>
       <c r="H3" s="327" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I3" s="327">
         <v>7</v>
@@ -22695,16 +22810,16 @@
       </c>
       <c r="M3" s="108"/>
       <c r="N3" s="105" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O3" s="108"/>
       <c r="P3" s="107" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q3" s="268"/>
       <c r="R3" s="2"/>
       <c r="S3" s="286" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="T3" s="287"/>
       <c r="U3" s="293"/>
@@ -22714,7 +22829,7 @@
       <c r="Y3" s="295"/>
     </row>
     <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="385">
+      <c r="A4" s="380">
         <v>3</v>
       </c>
       <c r="B4" s="355">
@@ -22727,12 +22842,12 @@
         <v>15</v>
       </c>
       <c r="E4" s="202" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="F4" s="203"/>
       <c r="G4" s="203"/>
       <c r="H4" s="327" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="I4" s="327">
         <v>3</v>
@@ -22754,12 +22869,12 @@
       </c>
       <c r="Q4" s="268"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="379" t="s">
-        <v>219</v>
-      </c>
-      <c r="T4" s="380"/>
+      <c r="S4" s="374" t="s">
+        <v>218</v>
+      </c>
+      <c r="T4" s="375"/>
       <c r="U4" s="290" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V4" s="291"/>
       <c r="W4" s="292"/>
@@ -22767,28 +22882,28 @@
       <c r="Y4" s="292"/>
     </row>
     <row r="5" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="385">
+      <c r="A5" s="380">
         <v>4</v>
       </c>
       <c r="B5" s="355">
-        <v>11</v>
-      </c>
-      <c r="C5" s="374" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="370" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="333">
         <v>13</v>
       </c>
       <c r="E5" s="202" t="s">
-        <v>533</v>
+        <v>608</v>
       </c>
       <c r="F5" s="203"/>
       <c r="G5" s="203"/>
       <c r="H5" s="327" t="s">
-        <v>534</v>
+        <v>609</v>
       </c>
       <c r="I5" s="327">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" s="107" t="s">
         <v>55</v>
@@ -22799,7 +22914,7 @@
       </c>
       <c r="M5" s="108"/>
       <c r="N5" s="105" t="s">
-        <v>318</v>
+        <v>63</v>
       </c>
       <c r="O5" s="108"/>
       <c r="P5" s="107" t="s">
@@ -22812,7 +22927,7 @@
       <c r="W5" s="86"/>
     </row>
     <row r="6" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="385">
+      <c r="A6" s="380">
         <v>5</v>
       </c>
       <c r="B6" s="355">
@@ -22825,12 +22940,12 @@
         <v>12</v>
       </c>
       <c r="E6" s="202" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="F6" s="203"/>
       <c r="G6" s="203"/>
       <c r="H6" s="327" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="I6" s="327">
         <v>4</v>
@@ -22848,7 +22963,7 @@
       </c>
       <c r="O6" s="108"/>
       <c r="P6" s="107" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q6" s="268"/>
       <c r="R6" s="2"/>
@@ -22857,7 +22972,7 @@
       <c r="W6" s="86"/>
     </row>
     <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="385">
+      <c r="A7" s="380">
         <v>6</v>
       </c>
       <c r="B7" s="355">
@@ -22870,12 +22985,12 @@
         <v>12</v>
       </c>
       <c r="E7" s="202" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="F7" s="203"/>
       <c r="G7" s="203"/>
       <c r="H7" s="327" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="I7" s="327">
         <v>4</v>
@@ -22889,7 +23004,7 @@
       </c>
       <c r="M7" s="108"/>
       <c r="N7" s="105" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O7" s="108"/>
       <c r="P7" s="107" t="s">
@@ -22897,14 +23012,14 @@
       </c>
       <c r="Q7" s="268"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="382"/>
-      <c r="T7" s="381"/>
-      <c r="U7" s="383"/>
-      <c r="V7" s="381"/>
+      <c r="S7" s="377"/>
+      <c r="T7" s="376"/>
+      <c r="U7" s="378"/>
+      <c r="V7" s="376"/>
       <c r="W7" s="86"/>
     </row>
     <row r="8" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="385">
+      <c r="A8" s="380">
         <v>7</v>
       </c>
       <c r="B8" s="355">
@@ -22917,12 +23032,12 @@
         <v>11</v>
       </c>
       <c r="E8" s="202" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="F8" s="203"/>
       <c r="G8" s="203"/>
       <c r="H8" s="327" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="I8" s="327">
         <v>-1</v>
@@ -22949,31 +23064,31 @@
       <c r="W8" s="86"/>
     </row>
     <row r="9" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="385">
+      <c r="A9" s="380">
         <v>8</v>
       </c>
       <c r="B9" s="355">
         <v>7</v>
       </c>
-      <c r="C9" s="506" t="s">
-        <v>217</v>
+      <c r="C9" s="501" t="s">
+        <v>216</v>
       </c>
       <c r="D9" s="333">
         <v>9</v>
       </c>
       <c r="E9" s="202" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F9" s="203"/>
       <c r="G9" s="203"/>
       <c r="H9" s="327" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="I9" s="327">
         <v>-2</v>
       </c>
       <c r="J9" s="107" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K9" s="106"/>
       <c r="L9" s="107" t="s">
@@ -22994,31 +23109,31 @@
       <c r="W9" s="86"/>
     </row>
     <row r="10" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="385">
+      <c r="A10" s="380">
         <v>9</v>
       </c>
       <c r="B10" s="355">
         <v>5</v>
       </c>
-      <c r="C10" s="507" t="s">
+      <c r="C10" s="502" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="333">
         <v>9</v>
       </c>
       <c r="E10" s="202" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="F10" s="203"/>
       <c r="G10" s="203"/>
       <c r="H10" s="327" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="I10" s="327">
         <v>0</v>
       </c>
       <c r="J10" s="107" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K10" s="106"/>
       <c r="L10" s="107" t="s">
@@ -23039,7 +23154,7 @@
       <c r="W10" s="86"/>
     </row>
     <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="385">
+      <c r="A11" s="380">
         <v>10</v>
       </c>
       <c r="B11" s="355">
@@ -23052,15 +23167,15 @@
         <v>8</v>
       </c>
       <c r="E11" s="202" t="s">
-        <v>550</v>
+        <v>612</v>
       </c>
       <c r="F11" s="203"/>
       <c r="G11" s="203"/>
       <c r="H11" s="327" t="s">
-        <v>551</v>
+        <v>613</v>
       </c>
       <c r="I11" s="327">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="J11" s="107" t="s">
         <v>53</v>
@@ -23084,25 +23199,25 @@
       <c r="W11" s="86"/>
     </row>
     <row r="12" spans="1:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="385">
+      <c r="A12" s="380">
         <v>11</v>
       </c>
       <c r="B12" s="355">
         <v>6</v>
       </c>
-      <c r="C12" s="486" t="s">
-        <v>314</v>
+      <c r="C12" s="481" t="s">
+        <v>313</v>
       </c>
       <c r="D12" s="333">
         <v>8</v>
       </c>
       <c r="E12" s="202" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F12" s="203"/>
       <c r="G12" s="203"/>
       <c r="H12" s="327" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="I12" s="327">
         <v>-1</v>
@@ -23124,34 +23239,34 @@
       </c>
       <c r="Q12" s="268"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="382"/>
-      <c r="T12" s="381"/>
-      <c r="U12" s="383"/>
-      <c r="V12" s="381"/>
-      <c r="W12" s="381"/>
-      <c r="X12" s="381"/>
-      <c r="Y12" s="381"/>
+      <c r="S12" s="377"/>
+      <c r="T12" s="376"/>
+      <c r="U12" s="378"/>
+      <c r="V12" s="376"/>
+      <c r="W12" s="376"/>
+      <c r="X12" s="376"/>
+      <c r="Y12" s="376"/>
     </row>
     <row r="13" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="385">
+      <c r="A13" s="380">
         <v>12</v>
       </c>
       <c r="B13" s="355">
         <v>3</v>
       </c>
-      <c r="C13" s="378" t="s">
+      <c r="C13" s="373" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="333">
         <v>7</v>
       </c>
       <c r="E13" s="202" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="F13" s="203"/>
       <c r="G13" s="203"/>
       <c r="H13" s="327" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="I13" s="327">
         <v>-4</v>
@@ -23178,25 +23293,25 @@
       <c r="W13" s="86"/>
     </row>
     <row r="14" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="385">
+      <c r="A14" s="380">
         <v>13</v>
       </c>
       <c r="B14" s="355">
         <v>2</v>
       </c>
-      <c r="C14" s="485" t="s">
-        <v>312</v>
+      <c r="C14" s="480" t="s">
+        <v>311</v>
       </c>
       <c r="D14" s="333">
         <v>7</v>
       </c>
       <c r="E14" s="202" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F14" s="203"/>
       <c r="G14" s="203"/>
       <c r="H14" s="327" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="I14" s="327">
         <v>-3</v>
@@ -23218,38 +23333,38 @@
       </c>
       <c r="Q14" s="268"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="382"/>
-      <c r="T14" s="381"/>
-      <c r="U14" s="383"/>
-      <c r="V14" s="381"/>
+      <c r="S14" s="377"/>
+      <c r="T14" s="376"/>
+      <c r="U14" s="378"/>
+      <c r="V14" s="376"/>
       <c r="W14" s="86"/>
     </row>
     <row r="15" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="385">
+      <c r="A15" s="380">
         <v>14</v>
       </c>
       <c r="B15" s="355">
         <v>5</v>
       </c>
-      <c r="C15" s="376" t="s">
+      <c r="C15" s="372" t="s">
         <v>129</v>
       </c>
       <c r="D15" s="333">
         <v>5</v>
       </c>
       <c r="E15" s="202" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="F15" s="203"/>
       <c r="G15" s="203"/>
       <c r="H15" s="327" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="I15" s="327">
         <v>-7</v>
       </c>
       <c r="J15" s="107" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K15" s="106"/>
       <c r="L15" s="107" t="s">
@@ -23270,31 +23385,31 @@
       <c r="W15" s="86"/>
     </row>
     <row r="16" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="385">
+      <c r="A16" s="380">
         <v>15</v>
       </c>
       <c r="B16" s="355">
-        <v>1</v>
-      </c>
-      <c r="C16" s="356" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C16" s="507" t="s">
+        <v>13</v>
       </c>
       <c r="D16" s="333">
         <v>5</v>
       </c>
       <c r="E16" s="202" t="s">
-        <v>562</v>
+        <v>610</v>
       </c>
       <c r="F16" s="203"/>
       <c r="G16" s="203"/>
       <c r="H16" s="327" t="s">
-        <v>561</v>
+        <v>611</v>
       </c>
       <c r="I16" s="327">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="J16" s="107" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K16" s="106"/>
       <c r="L16" s="107" t="s">
@@ -23302,65 +23417,65 @@
       </c>
       <c r="M16" s="108"/>
       <c r="N16" s="105" t="s">
-        <v>65</v>
+        <v>327</v>
       </c>
       <c r="O16" s="108"/>
       <c r="P16" s="107" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q16" s="268"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="382"/>
-      <c r="T16" s="381"/>
-      <c r="U16" s="383"/>
-      <c r="V16" s="381"/>
+      <c r="S16" s="377"/>
+      <c r="T16" s="376"/>
+      <c r="U16" s="378"/>
+      <c r="V16" s="376"/>
       <c r="W16" s="86"/>
     </row>
     <row r="17" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="385">
+      <c r="A17" s="380">
         <v>16</v>
       </c>
       <c r="B17" s="355">
-        <v>2</v>
-      </c>
-      <c r="C17" s="377" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="C17" s="508" t="s">
+        <v>6</v>
       </c>
       <c r="D17" s="333">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E17" s="314" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="F17" s="315"/>
       <c r="G17" s="315"/>
       <c r="H17" s="328" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="I17" s="328">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="J17" s="138" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K17" s="270"/>
       <c r="L17" s="138" t="s">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="M17" s="163"/>
       <c r="N17" s="164" t="s">
-        <v>328</v>
+        <v>65</v>
       </c>
       <c r="O17" s="165"/>
       <c r="P17" s="138" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="269"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="382"/>
-      <c r="T17" s="381"/>
-      <c r="U17" s="383"/>
-      <c r="V17" s="381"/>
+      <c r="S17" s="377"/>
+      <c r="T17" s="376"/>
+      <c r="U17" s="378"/>
+      <c r="V17" s="376"/>
       <c r="W17" s="86"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -23385,8 +23500,8 @@
       <c r="U18" s="2"/>
     </row>
     <row r="19" spans="1:23" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="359" t="s">
-        <v>152</v>
+      <c r="C19" s="358" t="s">
+        <v>151</v>
       </c>
       <c r="D19" s="88" t="s">
         <v>42</v>
@@ -23422,19 +23537,19 @@
         <v>2</v>
       </c>
       <c r="O19" s="335" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P19" s="277" t="s">
         <v>4</v>
       </c>
       <c r="Q19" s="335" t="s">
+        <v>312</v>
+      </c>
+      <c r="R19" s="363" t="s">
         <v>313</v>
       </c>
-      <c r="R19" s="365" t="s">
-        <v>314</v>
-      </c>
-      <c r="S19" s="366" t="s">
-        <v>319</v>
+      <c r="S19" s="364" t="s">
+        <v>318</v>
       </c>
       <c r="T19" s="136" t="s">
         <v>46</v>
@@ -23475,7 +23590,7 @@
       <c r="R20" s="263"/>
       <c r="S20" s="263"/>
       <c r="T20" s="145" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="U20" s="146">
         <v>5</v>
@@ -23511,7 +23626,7 @@
       <c r="R21" s="264"/>
       <c r="S21" s="264"/>
       <c r="T21" s="147" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="U21" s="148">
         <v>7</v>
@@ -23542,12 +23657,12 @@
       <c r="Q22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="R22" s="373" t="s">
+      <c r="R22" s="369" t="s">
         <v>16</v>
       </c>
       <c r="S22" s="264"/>
       <c r="T22" s="147" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="U22" s="148">
         <v>4</v>
@@ -23583,7 +23698,7 @@
       <c r="R23" s="265"/>
       <c r="S23" s="265"/>
       <c r="T23" s="149" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="U23" s="150">
         <v>7</v>
@@ -23621,7 +23736,7 @@
         <v>27</v>
       </c>
       <c r="T24" s="147" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="U24" s="148">
         <v>8</v>
@@ -23650,12 +23765,12 @@
       <c r="O25" s="222"/>
       <c r="P25" s="221"/>
       <c r="Q25" s="221"/>
-      <c r="R25" s="388" t="s">
+      <c r="R25" s="383" t="s">
         <v>16</v>
       </c>
       <c r="S25" s="266"/>
       <c r="T25" s="147" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U25" s="148">
         <v>4</v>
@@ -23691,7 +23806,7 @@
       <c r="R26" s="263"/>
       <c r="S26" s="278"/>
       <c r="T26" s="147" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="U26" s="148">
         <v>6</v>
@@ -23699,7 +23814,7 @@
       <c r="W26" s="86"/>
     </row>
     <row r="27" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="484" t="s">
+      <c r="C27" s="479" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="220"/>
@@ -23723,11 +23838,11 @@
       <c r="P27" s="222"/>
       <c r="Q27" s="221"/>
       <c r="R27" s="266"/>
-      <c r="S27" s="373" t="s">
+      <c r="S27" s="369" t="s">
         <v>21</v>
       </c>
       <c r="T27" s="147" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="U27" s="148">
         <v>3</v>
@@ -23739,7 +23854,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="172" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E28" s="223"/>
       <c r="F28" s="223"/>
@@ -23750,23 +23865,25 @@
       <c r="K28" s="223"/>
       <c r="L28" s="4"/>
       <c r="M28" s="222"/>
-      <c r="N28" s="222"/>
+      <c r="N28" s="52" t="s">
+        <v>18</v>
+      </c>
       <c r="O28" s="52" t="s">
         <v>25</v>
       </c>
       <c r="P28" s="222"/>
       <c r="Q28" s="223"/>
-      <c r="R28" s="373" t="s">
+      <c r="R28" s="369" t="s">
         <v>21</v>
       </c>
       <c r="S28" s="24" t="s">
         <v>17</v>
       </c>
       <c r="T28" s="147" t="s">
-        <v>564</v>
+        <v>614</v>
       </c>
       <c r="U28" s="148">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="W28" s="86"/>
     </row>
@@ -23777,7 +23894,9 @@
       <c r="D29" s="220"/>
       <c r="E29" s="223"/>
       <c r="F29" s="222"/>
-      <c r="G29" s="223"/>
+      <c r="G29" s="52" t="s">
+        <v>15</v>
+      </c>
       <c r="H29" s="5" t="s">
         <v>20</v>
       </c>
@@ -23799,10 +23918,10 @@
       <c r="R29" s="264"/>
       <c r="S29" s="265"/>
       <c r="T29" s="190" t="s">
-        <v>575</v>
+        <v>616</v>
       </c>
       <c r="U29" s="148">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W29" s="86"/>
     </row>
@@ -23835,7 +23954,7 @@
       <c r="R30" s="265"/>
       <c r="S30" s="223"/>
       <c r="T30" s="147" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="U30" s="148">
         <v>8</v>
@@ -23844,7 +23963,7 @@
     </row>
     <row r="31" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="334" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D31" s="220"/>
       <c r="E31" s="223"/>
@@ -23869,7 +23988,7 @@
       <c r="R31" s="265"/>
       <c r="S31" s="264"/>
       <c r="T31" s="147" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U31" s="148">
         <v>4</v>
@@ -23877,7 +23996,7 @@
       <c r="W31" s="86"/>
     </row>
     <row r="32" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="357" t="s">
+      <c r="C32" s="356" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="220"/>
@@ -23903,7 +24022,7 @@
       <c r="R32" s="266"/>
       <c r="S32" s="266"/>
       <c r="T32" s="147" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="U32" s="148">
         <v>9</v>
@@ -23911,8 +24030,8 @@
       <c r="W32" s="86"/>
     </row>
     <row r="33" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="364" t="s">
-        <v>313</v>
+      <c r="C33" s="362" t="s">
+        <v>312</v>
       </c>
       <c r="D33" s="220"/>
       <c r="E33" s="221"/>
@@ -23935,11 +24054,11 @@
       <c r="P33" s="222"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="264"/>
-      <c r="S33" s="373" t="s">
+      <c r="S33" s="369" t="s">
         <v>21</v>
       </c>
       <c r="T33" s="147" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="U33" s="148">
         <v>10</v>
@@ -23948,9 +24067,9 @@
     </row>
     <row r="34" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C34" s="93" t="s">
-        <v>314</v>
-      </c>
-      <c r="D34" s="483" t="s">
+        <v>313</v>
+      </c>
+      <c r="D34" s="478" t="s">
         <v>16</v>
       </c>
       <c r="E34" s="181" t="s">
@@ -23971,11 +24090,11 @@
         <v>23</v>
       </c>
       <c r="R34" s="267"/>
-      <c r="S34" s="363" t="s">
+      <c r="S34" s="361" t="s">
         <v>16</v>
       </c>
       <c r="T34" s="261" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="U34" s="262">
         <v>5</v>
@@ -23983,8 +24102,8 @@
       <c r="W34" s="86"/>
     </row>
     <row r="35" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="367" t="s">
-        <v>319</v>
+      <c r="C35" s="365" t="s">
+        <v>318</v>
       </c>
       <c r="D35" s="196" t="s">
         <v>18</v>
@@ -24009,7 +24128,7 @@
       <c r="R35" s="271"/>
       <c r="S35" s="267"/>
       <c r="T35" s="261" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U35" s="262">
         <v>4</v>
@@ -24017,56 +24136,56 @@
       <c r="W35" s="86"/>
     </row>
     <row r="36" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="C36" s="358" t="s">
+      <c r="C36" s="357" t="s">
         <v>45</v>
       </c>
       <c r="D36" s="273" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E36" s="154" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="F36" s="154" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G36" s="154" t="s">
-        <v>580</v>
+        <v>615</v>
       </c>
       <c r="H36" s="154" t="s">
+        <v>553</v>
+      </c>
+      <c r="I36" s="154" t="s">
+        <v>573</v>
+      </c>
+      <c r="J36" s="154" t="s">
+        <v>559</v>
+      </c>
+      <c r="K36" s="154" t="s">
+        <v>554</v>
+      </c>
+      <c r="L36" s="154" t="s">
+        <v>564</v>
+      </c>
+      <c r="M36" s="154" t="s">
+        <v>556</v>
+      </c>
+      <c r="N36" s="154" t="s">
+        <v>560</v>
+      </c>
+      <c r="O36" s="154" t="s">
         <v>563</v>
       </c>
-      <c r="I36" s="154" t="s">
-        <v>586</v>
-      </c>
-      <c r="J36" s="154" t="s">
+      <c r="P36" s="154" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q36" s="154" t="s">
+        <v>571</v>
+      </c>
+      <c r="R36" s="154" t="s">
+        <v>558</v>
+      </c>
+      <c r="S36" s="281" t="s">
         <v>570</v>
-      </c>
-      <c r="K36" s="154" t="s">
-        <v>565</v>
-      </c>
-      <c r="L36" s="154" t="s">
-        <v>576</v>
-      </c>
-      <c r="M36" s="154" t="s">
-        <v>567</v>
-      </c>
-      <c r="N36" s="154" t="s">
-        <v>330</v>
-      </c>
-      <c r="O36" s="154" t="s">
-        <v>574</v>
-      </c>
-      <c r="P36" s="154" t="s">
-        <v>578</v>
-      </c>
-      <c r="Q36" s="154" t="s">
-        <v>584</v>
-      </c>
-      <c r="R36" s="154" t="s">
-        <v>569</v>
-      </c>
-      <c r="S36" s="281" t="s">
-        <v>583</v>
       </c>
       <c r="T36" s="274"/>
       <c r="U36" s="279"/>
@@ -24146,16 +24265,16 @@
   </sheetPr>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="362" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="360" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" customWidth="1"/>
@@ -24174,936 +24293,944 @@
     <col min="17" max="17" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="494" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="359" t="s">
-        <v>320</v>
-      </c>
-      <c r="B1" s="492" t="s">
+    <row r="1" spans="1:17" s="489" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="358" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="487" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="493" t="s">
+      <c r="C1" s="488" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="492" t="s">
+      <c r="D1" s="487" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="493" t="s">
+      <c r="E1" s="488" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="492" t="s">
+      <c r="F1" s="487" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="493" t="s">
+      <c r="G1" s="488" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="492" t="s">
+      <c r="H1" s="487" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="493" t="s">
+      <c r="I1" s="488" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="492" t="s">
+      <c r="J1" s="487" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="493" t="s">
+      <c r="K1" s="488" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="492" t="s">
+      <c r="L1" s="487" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="493" t="s">
-        <v>218</v>
-      </c>
-      <c r="N1" s="492" t="s">
+      <c r="M1" s="488" t="s">
+        <v>217</v>
+      </c>
+      <c r="N1" s="487" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="493" t="s">
+      <c r="O1" s="488" t="s">
+        <v>312</v>
+      </c>
+      <c r="P1" s="487" t="s">
         <v>313</v>
       </c>
-      <c r="P1" s="492" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q1" s="493" t="s">
-        <v>319</v>
+      <c r="Q1" s="488" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="368">
+      <c r="A2" s="366">
         <v>1</v>
       </c>
-      <c r="B2" s="489" t="s">
+      <c r="B2" s="484" t="s">
+        <v>509</v>
+      </c>
+      <c r="C2" s="499" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" s="493" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2" s="494" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2" s="496" t="s">
+        <v>342</v>
+      </c>
+      <c r="G2" s="484" t="s">
+        <v>386</v>
+      </c>
+      <c r="H2" s="484" t="s">
         <v>511</v>
       </c>
-      <c r="C2" s="504" t="s">
+      <c r="I2" s="498" t="s">
+        <v>525</v>
+      </c>
+      <c r="J2" s="499" t="s">
+        <v>349</v>
+      </c>
+      <c r="K2" s="493" t="s">
+        <v>353</v>
+      </c>
+      <c r="L2" s="484" t="s">
+        <v>357</v>
+      </c>
+      <c r="M2" s="494" t="s">
+        <v>322</v>
+      </c>
+      <c r="N2" s="500" t="s">
+        <v>365</v>
+      </c>
+      <c r="O2" s="494" t="s">
+        <v>370</v>
+      </c>
+      <c r="P2" s="484" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q2" s="484" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="381" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="366">
+        <v>2</v>
+      </c>
+      <c r="B3" s="483" t="s">
+        <v>508</v>
+      </c>
+      <c r="C3" s="486" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" s="483" t="s">
+        <v>604</v>
+      </c>
+      <c r="E3" s="492" t="s">
+        <v>338</v>
+      </c>
+      <c r="F3" s="486" t="s">
+        <v>343</v>
+      </c>
+      <c r="G3" s="483" t="s">
+        <v>387</v>
+      </c>
+      <c r="H3" s="486" t="s">
+        <v>510</v>
+      </c>
+      <c r="I3" s="490" t="s">
+        <v>347</v>
+      </c>
+      <c r="J3" s="485" t="s">
+        <v>350</v>
+      </c>
+      <c r="K3" s="483" t="s">
+        <v>356</v>
+      </c>
+      <c r="L3" s="485" t="s">
+        <v>321</v>
+      </c>
+      <c r="M3" s="491" t="s">
+        <v>361</v>
+      </c>
+      <c r="N3" s="483" t="s">
+        <v>366</v>
+      </c>
+      <c r="O3" s="490" t="s">
+        <v>371</v>
+      </c>
+      <c r="P3" s="485" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q3" s="486" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="379" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="382">
+        <v>3</v>
+      </c>
+      <c r="B4" s="486" t="s">
+        <v>507</v>
+      </c>
+      <c r="C4" s="506" t="s">
+        <v>335</v>
+      </c>
+      <c r="D4" s="503" t="s">
+        <v>333</v>
+      </c>
+      <c r="E4" s="483" t="s">
+        <v>339</v>
+      </c>
+      <c r="F4" s="483" t="s">
+        <v>344</v>
+      </c>
+      <c r="G4" s="497" t="s">
+        <v>388</v>
+      </c>
+      <c r="H4" s="485" t="s">
+        <v>512</v>
+      </c>
+      <c r="I4" s="485" t="s">
+        <v>527</v>
+      </c>
+      <c r="J4" s="486" t="s">
+        <v>351</v>
+      </c>
+      <c r="K4" s="483" t="s">
+        <v>354</v>
+      </c>
+      <c r="L4" s="486" t="s">
+        <v>358</v>
+      </c>
+      <c r="M4" s="483" t="s">
+        <v>362</v>
+      </c>
+      <c r="N4" s="486" t="s">
+        <v>369</v>
+      </c>
+      <c r="O4" s="486" t="s">
+        <v>372</v>
+      </c>
+      <c r="P4" s="483" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q4" s="485" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="379" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="382">
+        <v>4</v>
+      </c>
+      <c r="B5" s="483" t="s">
+        <v>506</v>
+      </c>
+      <c r="C5" s="498" t="s">
+        <v>324</v>
+      </c>
+      <c r="D5" s="504" t="s">
+        <v>334</v>
+      </c>
+      <c r="E5" s="495" t="s">
+        <v>340</v>
+      </c>
+      <c r="F5" s="486" t="s">
+        <v>345</v>
+      </c>
+      <c r="G5" s="486" t="s">
+        <v>389</v>
+      </c>
+      <c r="H5" s="485" t="s">
+        <v>513</v>
+      </c>
+      <c r="I5" s="485" t="s">
+        <v>348</v>
+      </c>
+      <c r="J5" s="486" t="s">
+        <v>352</v>
+      </c>
+      <c r="K5" s="503" t="s">
+        <v>355</v>
+      </c>
+      <c r="L5" s="486" t="s">
+        <v>359</v>
+      </c>
+      <c r="M5" s="486" t="s">
+        <v>363</v>
+      </c>
+      <c r="N5" s="483" t="s">
+        <v>368</v>
+      </c>
+      <c r="O5" s="485" t="s">
+        <v>373</v>
+      </c>
+      <c r="P5" s="486" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q5" s="485" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="379" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="382">
+        <v>5</v>
+      </c>
+      <c r="B6" s="485" t="s">
+        <v>505</v>
+      </c>
+      <c r="C6" s="491" t="s">
         <v>331</v>
       </c>
-      <c r="D2" s="498" t="s">
-        <v>334</v>
-      </c>
-      <c r="E2" s="499" t="s">
-        <v>339</v>
-      </c>
-      <c r="F2" s="501" t="s">
-        <v>344</v>
-      </c>
-      <c r="G2" s="489" t="s">
-        <v>388</v>
-      </c>
-      <c r="H2" s="489" t="s">
-        <v>513</v>
-      </c>
-      <c r="I2" s="503" t="s">
-        <v>527</v>
-      </c>
-      <c r="J2" s="504" t="s">
-        <v>351</v>
-      </c>
-      <c r="K2" s="498" t="s">
-        <v>355</v>
-      </c>
-      <c r="L2" s="489" t="s">
-        <v>359</v>
-      </c>
-      <c r="M2" s="499" t="s">
-        <v>323</v>
-      </c>
-      <c r="N2" s="505" t="s">
+      <c r="D6" s="483" t="s">
+        <v>336</v>
+      </c>
+      <c r="E6" s="490" t="s">
+        <v>341</v>
+      </c>
+      <c r="F6" s="485" t="s">
+        <v>346</v>
+      </c>
+      <c r="G6" s="485" t="s">
+        <v>384</v>
+      </c>
+      <c r="H6" s="485" t="s">
+        <v>514</v>
+      </c>
+      <c r="I6" s="483" t="s">
+        <v>526</v>
+      </c>
+      <c r="J6" s="486" t="s">
+        <v>518</v>
+      </c>
+      <c r="K6" s="498" t="s">
+        <v>605</v>
+      </c>
+      <c r="L6" s="485" t="s">
+        <v>360</v>
+      </c>
+      <c r="M6" s="492" t="s">
+        <v>364</v>
+      </c>
+      <c r="N6" s="486" t="s">
         <v>367</v>
       </c>
-      <c r="O2" s="499" t="s">
-        <v>372</v>
-      </c>
-      <c r="P2" s="489" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q2" s="489" t="s">
+      <c r="O6" s="486" t="s">
+        <v>374</v>
+      </c>
+      <c r="P6" s="485" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q6" s="485" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="386" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="368">
-        <v>2</v>
-      </c>
-      <c r="B3" s="488" t="s">
-        <v>510</v>
-      </c>
-      <c r="C3" s="491" t="s">
-        <v>332</v>
-      </c>
-      <c r="D3" s="488" t="s">
+    <row r="7" spans="1:17" s="379" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="382">
+        <v>6</v>
+      </c>
+      <c r="B7" s="506" t="s">
+        <v>504</v>
+      </c>
+      <c r="C7" s="490" t="s">
+        <v>519</v>
+      </c>
+      <c r="D7" s="485" t="s">
+        <v>523</v>
+      </c>
+      <c r="E7" s="490" t="s">
+        <v>585</v>
+      </c>
+      <c r="F7" s="485" t="s">
+        <v>500</v>
+      </c>
+      <c r="G7" s="483" t="s">
+        <v>520</v>
+      </c>
+      <c r="H7" s="485" t="s">
+        <v>515</v>
+      </c>
+      <c r="I7" s="491" t="s">
+        <v>524</v>
+      </c>
+      <c r="J7" s="485" t="s">
+        <v>499</v>
+      </c>
+      <c r="K7" s="491" t="s">
+        <v>498</v>
+      </c>
+      <c r="L7" s="485" t="s">
+        <v>501</v>
+      </c>
+      <c r="M7" s="490" t="s">
+        <v>521</v>
+      </c>
+      <c r="N7" s="486" t="s">
+        <v>578</v>
+      </c>
+      <c r="O7" s="491" t="s">
+        <v>516</v>
+      </c>
+      <c r="P7" s="485" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q7" s="483" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="482" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="382">
+        <v>7</v>
+      </c>
+      <c r="B8" s="505" t="s">
+        <v>602</v>
+      </c>
+      <c r="C8" s="492" t="s">
+        <v>586</v>
+      </c>
+      <c r="D8" s="485" t="s">
+        <v>581</v>
+      </c>
+      <c r="E8" s="491" t="s">
+        <v>594</v>
+      </c>
+      <c r="F8" s="486" t="s">
+        <v>596</v>
+      </c>
+      <c r="G8" s="483" t="s">
+        <v>583</v>
+      </c>
+      <c r="H8" s="486" t="s">
+        <v>582</v>
+      </c>
+      <c r="I8" s="492" t="s">
+        <v>577</v>
+      </c>
+      <c r="J8" s="486" t="s">
+        <v>576</v>
+      </c>
+      <c r="K8" s="483" t="s">
+        <v>588</v>
+      </c>
+      <c r="L8" s="486" t="s">
+        <v>584</v>
+      </c>
+      <c r="M8" s="492" t="s">
+        <v>574</v>
+      </c>
+      <c r="N8" s="486" t="s">
+        <v>592</v>
+      </c>
+      <c r="O8" s="490" t="s">
+        <v>579</v>
+      </c>
+      <c r="P8" s="485" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q8" s="483" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="482" customFormat="1" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="382">
+        <v>8</v>
+      </c>
+      <c r="B9" s="486" t="s">
+        <v>601</v>
+      </c>
+      <c r="C9" s="492" t="s">
+        <v>603</v>
+      </c>
+      <c r="D9" s="483" t="s">
+        <v>598</v>
+      </c>
+      <c r="E9" s="492" t="s">
         <v>617</v>
       </c>
-      <c r="E3" s="497" t="s">
-        <v>340</v>
-      </c>
-      <c r="F3" s="491" t="s">
-        <v>345</v>
-      </c>
-      <c r="G3" s="488" t="s">
-        <v>389</v>
-      </c>
-      <c r="H3" s="491" t="s">
-        <v>512</v>
-      </c>
-      <c r="I3" s="495" t="s">
-        <v>349</v>
-      </c>
-      <c r="J3" s="490" t="s">
-        <v>352</v>
-      </c>
-      <c r="K3" s="488" t="s">
-        <v>358</v>
-      </c>
-      <c r="L3" s="490" t="s">
-        <v>322</v>
-      </c>
-      <c r="M3" s="496" t="s">
-        <v>363</v>
-      </c>
-      <c r="N3" s="488" t="s">
-        <v>368</v>
-      </c>
-      <c r="O3" s="495" t="s">
-        <v>373</v>
-      </c>
-      <c r="P3" s="490" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q3" s="491" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="384" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="387">
-        <v>3</v>
-      </c>
-      <c r="B4" s="491" t="s">
-        <v>509</v>
-      </c>
-      <c r="C4" s="511" t="s">
-        <v>337</v>
-      </c>
-      <c r="D4" s="508" t="s">
-        <v>335</v>
-      </c>
-      <c r="E4" s="488" t="s">
-        <v>341</v>
-      </c>
-      <c r="F4" s="488" t="s">
-        <v>346</v>
-      </c>
-      <c r="G4" s="502" t="s">
-        <v>390</v>
-      </c>
-      <c r="H4" s="490" t="s">
-        <v>514</v>
-      </c>
-      <c r="I4" s="490" t="s">
-        <v>529</v>
-      </c>
-      <c r="J4" s="491" t="s">
-        <v>353</v>
-      </c>
-      <c r="K4" s="488" t="s">
-        <v>356</v>
-      </c>
-      <c r="L4" s="491" t="s">
-        <v>360</v>
-      </c>
-      <c r="M4" s="488" t="s">
-        <v>364</v>
-      </c>
-      <c r="N4" s="491" t="s">
-        <v>371</v>
-      </c>
-      <c r="O4" s="491" t="s">
-        <v>374</v>
-      </c>
-      <c r="P4" s="488" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q4" s="490" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="384" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="387">
-        <v>4</v>
-      </c>
-      <c r="B5" s="488" t="s">
-        <v>508</v>
-      </c>
-      <c r="C5" s="503" t="s">
-        <v>325</v>
-      </c>
-      <c r="D5" s="509" t="s">
-        <v>336</v>
-      </c>
-      <c r="E5" s="500" t="s">
-        <v>342</v>
-      </c>
-      <c r="F5" s="491" t="s">
-        <v>347</v>
-      </c>
-      <c r="G5" s="491" t="s">
-        <v>391</v>
-      </c>
-      <c r="H5" s="490" t="s">
-        <v>515</v>
-      </c>
-      <c r="I5" s="490" t="s">
-        <v>350</v>
-      </c>
-      <c r="J5" s="491" t="s">
-        <v>354</v>
-      </c>
-      <c r="K5" s="508" t="s">
-        <v>357</v>
-      </c>
-      <c r="L5" s="491" t="s">
-        <v>361</v>
-      </c>
-      <c r="M5" s="491" t="s">
-        <v>365</v>
-      </c>
-      <c r="N5" s="488" t="s">
-        <v>370</v>
-      </c>
-      <c r="O5" s="490" t="s">
-        <v>375</v>
-      </c>
-      <c r="P5" s="491" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q5" s="490" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="384" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="387">
-        <v>5</v>
-      </c>
-      <c r="B6" s="490" t="s">
-        <v>507</v>
-      </c>
-      <c r="C6" s="496" t="s">
-        <v>333</v>
-      </c>
-      <c r="D6" s="488" t="s">
-        <v>338</v>
-      </c>
-      <c r="E6" s="495" t="s">
-        <v>343</v>
-      </c>
-      <c r="F6" s="490" t="s">
-        <v>348</v>
-      </c>
-      <c r="G6" s="490" t="s">
-        <v>386</v>
-      </c>
-      <c r="H6" s="490" t="s">
-        <v>516</v>
-      </c>
-      <c r="I6" s="488" t="s">
-        <v>528</v>
-      </c>
-      <c r="J6" s="491" t="s">
-        <v>520</v>
-      </c>
-      <c r="K6" s="503" t="s">
+      <c r="F9" s="486" t="s">
+        <v>595</v>
+      </c>
+      <c r="G9" s="503" t="s">
+        <v>600</v>
+      </c>
+      <c r="H9" s="485" t="s">
+        <v>590</v>
+      </c>
+      <c r="I9" s="491" t="s">
+        <v>593</v>
+      </c>
+      <c r="J9" s="485" t="s">
+        <v>591</v>
+      </c>
+      <c r="K9" s="491" t="s">
+        <v>587</v>
+      </c>
+      <c r="L9" s="483" t="s">
+        <v>619</v>
+      </c>
+      <c r="M9" s="491" t="s">
+        <v>589</v>
+      </c>
+      <c r="N9" s="477"/>
+      <c r="O9" s="490" t="s">
+        <v>599</v>
+      </c>
+      <c r="P9" s="477"/>
+      <c r="Q9" s="503" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="482" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="366">
+        <v>9</v>
+      </c>
+      <c r="B10" s="509"/>
+      <c r="C10" s="381"/>
+      <c r="D10" s="509"/>
+      <c r="E10" s="381"/>
+      <c r="F10" s="509"/>
+      <c r="G10" s="381"/>
+      <c r="H10" s="509"/>
+      <c r="I10" s="381"/>
+      <c r="J10" s="504" t="s">
         <v>618</v>
       </c>
-      <c r="L6" s="490" t="s">
-        <v>362</v>
-      </c>
-      <c r="M6" s="497" t="s">
-        <v>366</v>
-      </c>
-      <c r="N6" s="491" t="s">
-        <v>369</v>
-      </c>
-      <c r="O6" s="491" t="s">
-        <v>376</v>
-      </c>
-      <c r="P6" s="490" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q6" s="490" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="384" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="387">
-        <v>6</v>
-      </c>
-      <c r="B7" s="511" t="s">
-        <v>506</v>
-      </c>
-      <c r="C7" s="495" t="s">
-        <v>521</v>
-      </c>
-      <c r="D7" s="490" t="s">
-        <v>525</v>
-      </c>
-      <c r="E7" s="495" t="s">
-        <v>598</v>
-      </c>
-      <c r="F7" s="490" t="s">
-        <v>502</v>
-      </c>
-      <c r="G7" s="488" t="s">
-        <v>522</v>
-      </c>
-      <c r="H7" s="490" t="s">
-        <v>517</v>
-      </c>
-      <c r="I7" s="496" t="s">
-        <v>526</v>
-      </c>
-      <c r="J7" s="490" t="s">
-        <v>501</v>
-      </c>
-      <c r="K7" s="496" t="s">
-        <v>500</v>
-      </c>
-      <c r="L7" s="490" t="s">
-        <v>503</v>
-      </c>
-      <c r="M7" s="495" t="s">
-        <v>523</v>
-      </c>
-      <c r="N7" s="491" t="s">
-        <v>591</v>
-      </c>
-      <c r="O7" s="496" t="s">
-        <v>518</v>
-      </c>
-      <c r="P7" s="490" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q7" s="488" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="487" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="387">
-        <v>7</v>
-      </c>
-      <c r="B8" s="510" t="s">
-        <v>615</v>
-      </c>
-      <c r="C8" s="497" t="s">
-        <v>599</v>
-      </c>
-      <c r="D8" s="490" t="s">
-        <v>594</v>
-      </c>
-      <c r="E8" s="496" t="s">
-        <v>607</v>
-      </c>
-      <c r="F8" s="491" t="s">
-        <v>609</v>
-      </c>
-      <c r="G8" s="488" t="s">
-        <v>596</v>
-      </c>
-      <c r="H8" s="491" t="s">
-        <v>595</v>
-      </c>
-      <c r="I8" s="497" t="s">
-        <v>590</v>
-      </c>
-      <c r="J8" s="491" t="s">
-        <v>589</v>
-      </c>
-      <c r="K8" s="488" t="s">
-        <v>601</v>
-      </c>
-      <c r="L8" s="491" t="s">
-        <v>597</v>
-      </c>
-      <c r="M8" s="497" t="s">
-        <v>587</v>
-      </c>
-      <c r="N8" s="491" t="s">
-        <v>605</v>
-      </c>
-      <c r="O8" s="495" t="s">
-        <v>592</v>
-      </c>
-      <c r="P8" s="490" t="s">
-        <v>593</v>
-      </c>
-      <c r="Q8" s="488" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="487" customFormat="1" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="387">
-        <v>8</v>
-      </c>
-      <c r="B9" s="491" t="s">
-        <v>614</v>
-      </c>
-      <c r="C9" s="497" t="s">
-        <v>616</v>
-      </c>
-      <c r="D9" s="488" t="s">
-        <v>611</v>
-      </c>
-      <c r="E9" s="384"/>
-      <c r="F9" s="491" t="s">
-        <v>608</v>
-      </c>
-      <c r="G9" s="508" t="s">
-        <v>613</v>
-      </c>
-      <c r="H9" s="490" t="s">
-        <v>603</v>
-      </c>
-      <c r="I9" s="496" t="s">
-        <v>606</v>
-      </c>
-      <c r="J9" s="490" t="s">
-        <v>604</v>
-      </c>
-      <c r="K9" s="496" t="s">
-        <v>600</v>
-      </c>
-      <c r="L9" s="482"/>
-      <c r="M9" s="496" t="s">
-        <v>602</v>
-      </c>
-      <c r="N9" s="482"/>
-      <c r="O9" s="495" t="s">
-        <v>612</v>
-      </c>
-      <c r="P9" s="482"/>
-      <c r="Q9" s="508" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="369">
-        <v>9</v>
-      </c>
-      <c r="B10" s="371"/>
-      <c r="C10" s="360"/>
-      <c r="D10" s="371"/>
-      <c r="E10" s="360"/>
-      <c r="F10" s="371"/>
-      <c r="G10" s="360"/>
-      <c r="H10" s="371"/>
-      <c r="I10" s="360"/>
-      <c r="J10" s="371"/>
-      <c r="K10" s="360"/>
-      <c r="L10" s="371"/>
-      <c r="M10" s="360"/>
-      <c r="N10" s="371"/>
-      <c r="O10" s="360"/>
-      <c r="P10" s="371"/>
-      <c r="Q10" s="371"/>
+      <c r="K10" s="510" t="s">
+        <v>620</v>
+      </c>
+      <c r="L10" s="509"/>
+      <c r="M10" s="381"/>
+      <c r="N10" s="509"/>
+      <c r="O10" s="381"/>
+      <c r="P10" s="509"/>
+      <c r="Q10" s="509"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="369">
+      <c r="A11" s="511">
         <v>10</v>
       </c>
-      <c r="B11" s="371"/>
-      <c r="C11" s="360"/>
-      <c r="D11" s="371"/>
-      <c r="E11" s="360"/>
-      <c r="F11" s="371"/>
-      <c r="G11" s="360"/>
-      <c r="H11" s="371"/>
-      <c r="I11" s="360"/>
-      <c r="J11" s="371"/>
-      <c r="K11" s="360"/>
-      <c r="L11" s="371"/>
-      <c r="M11" s="360"/>
-      <c r="N11" s="371"/>
-      <c r="O11" s="360"/>
-      <c r="P11" s="371"/>
-      <c r="Q11" s="371"/>
+      <c r="B11" s="512"/>
+      <c r="C11" s="512"/>
+      <c r="D11" s="512"/>
+      <c r="E11" s="512"/>
+      <c r="F11" s="512"/>
+      <c r="G11" s="512"/>
+      <c r="H11" s="512"/>
+      <c r="I11" s="512"/>
+      <c r="J11" s="512"/>
+      <c r="K11" s="512"/>
+      <c r="L11" s="512"/>
+      <c r="M11" s="512"/>
+      <c r="N11" s="512"/>
+      <c r="O11" s="512"/>
+      <c r="P11" s="512"/>
+      <c r="Q11" s="512"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="369">
+      <c r="A12" s="511">
         <v>11</v>
       </c>
-      <c r="B12" s="371"/>
-      <c r="C12" s="360"/>
-      <c r="D12" s="371"/>
-      <c r="E12" s="360"/>
-      <c r="F12" s="371"/>
-      <c r="G12" s="360"/>
-      <c r="H12" s="371"/>
-      <c r="I12" s="360"/>
-      <c r="J12" s="371"/>
-      <c r="K12" s="360"/>
-      <c r="L12" s="371"/>
-      <c r="M12" s="360"/>
-      <c r="N12" s="371"/>
-      <c r="O12" s="360"/>
-      <c r="P12" s="371"/>
-      <c r="Q12" s="371"/>
+      <c r="B12" s="512"/>
+      <c r="C12" s="512"/>
+      <c r="D12" s="512"/>
+      <c r="E12" s="512"/>
+      <c r="F12" s="512"/>
+      <c r="G12" s="512"/>
+      <c r="H12" s="512"/>
+      <c r="I12" s="512"/>
+      <c r="J12" s="512"/>
+      <c r="K12" s="512"/>
+      <c r="L12" s="512"/>
+      <c r="M12" s="512"/>
+      <c r="N12" s="512"/>
+      <c r="O12" s="512"/>
+      <c r="P12" s="512"/>
+      <c r="Q12" s="512"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="369">
+      <c r="A13" s="511">
         <v>12</v>
       </c>
-      <c r="B13" s="371"/>
-      <c r="C13" s="360"/>
-      <c r="D13" s="371"/>
-      <c r="E13" s="360"/>
-      <c r="F13" s="371"/>
-      <c r="G13" s="360"/>
-      <c r="H13" s="371"/>
-      <c r="I13" s="360"/>
-      <c r="J13" s="371"/>
-      <c r="K13" s="360"/>
-      <c r="L13" s="371"/>
-      <c r="M13" s="360"/>
-      <c r="N13" s="371"/>
-      <c r="O13" s="360"/>
-      <c r="P13" s="371"/>
-      <c r="Q13" s="371"/>
+      <c r="B13" s="512"/>
+      <c r="C13" s="512"/>
+      <c r="D13" s="512"/>
+      <c r="E13" s="512"/>
+      <c r="F13" s="512"/>
+      <c r="G13" s="512"/>
+      <c r="H13" s="512"/>
+      <c r="I13" s="512"/>
+      <c r="J13" s="512"/>
+      <c r="K13" s="512"/>
+      <c r="L13" s="512"/>
+      <c r="M13" s="512"/>
+      <c r="N13" s="512"/>
+      <c r="O13" s="512"/>
+      <c r="P13" s="512"/>
+      <c r="Q13" s="512"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="369">
+      <c r="A14" s="511">
         <v>13</v>
       </c>
-      <c r="B14" s="371"/>
-      <c r="C14" s="360"/>
-      <c r="D14" s="371"/>
-      <c r="E14" s="360"/>
-      <c r="F14" s="371"/>
-      <c r="G14" s="360"/>
-      <c r="H14" s="371"/>
-      <c r="I14" s="360"/>
-      <c r="J14" s="371"/>
-      <c r="K14" s="360"/>
-      <c r="L14" s="371"/>
-      <c r="M14" s="360"/>
-      <c r="N14" s="371"/>
-      <c r="O14" s="360"/>
-      <c r="P14" s="371"/>
-      <c r="Q14" s="371"/>
+      <c r="B14" s="512"/>
+      <c r="C14" s="512"/>
+      <c r="D14" s="512"/>
+      <c r="E14" s="512"/>
+      <c r="F14" s="512"/>
+      <c r="G14" s="512"/>
+      <c r="H14" s="512"/>
+      <c r="I14" s="512"/>
+      <c r="J14" s="512"/>
+      <c r="K14" s="512"/>
+      <c r="L14" s="512"/>
+      <c r="M14" s="512"/>
+      <c r="N14" s="512"/>
+      <c r="O14" s="512"/>
+      <c r="P14" s="512"/>
+      <c r="Q14" s="512"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="369">
+      <c r="A15" s="511">
         <v>14</v>
       </c>
-      <c r="B15" s="371"/>
-      <c r="C15" s="360"/>
-      <c r="D15" s="371"/>
-      <c r="E15" s="360"/>
-      <c r="F15" s="371"/>
-      <c r="G15" s="360"/>
-      <c r="H15" s="371"/>
-      <c r="I15" s="360"/>
-      <c r="J15" s="371"/>
-      <c r="K15" s="360"/>
-      <c r="L15" s="371"/>
-      <c r="M15" s="360"/>
-      <c r="N15" s="371"/>
-      <c r="O15" s="360"/>
-      <c r="P15" s="371"/>
-      <c r="Q15" s="371"/>
+      <c r="B15" s="512"/>
+      <c r="C15" s="512"/>
+      <c r="D15" s="512"/>
+      <c r="E15" s="512"/>
+      <c r="F15" s="512"/>
+      <c r="G15" s="512"/>
+      <c r="H15" s="512"/>
+      <c r="I15" s="512"/>
+      <c r="J15" s="512"/>
+      <c r="K15" s="512"/>
+      <c r="L15" s="512"/>
+      <c r="M15" s="512"/>
+      <c r="N15" s="512"/>
+      <c r="O15" s="512"/>
+      <c r="P15" s="512"/>
+      <c r="Q15" s="512"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="369">
+      <c r="A16" s="511">
         <v>15</v>
       </c>
-      <c r="B16" s="371"/>
-      <c r="C16" s="360"/>
-      <c r="D16" s="371"/>
-      <c r="E16" s="360"/>
-      <c r="F16" s="371"/>
-      <c r="G16" s="360"/>
-      <c r="H16" s="371"/>
-      <c r="I16" s="360"/>
-      <c r="J16" s="371"/>
-      <c r="K16" s="360"/>
-      <c r="L16" s="371"/>
-      <c r="M16" s="360"/>
-      <c r="N16" s="371"/>
-      <c r="O16" s="360"/>
-      <c r="P16" s="371"/>
-      <c r="Q16" s="371"/>
+      <c r="B16" s="512"/>
+      <c r="C16" s="512"/>
+      <c r="D16" s="512"/>
+      <c r="E16" s="512"/>
+      <c r="F16" s="512"/>
+      <c r="G16" s="512"/>
+      <c r="H16" s="512"/>
+      <c r="I16" s="512"/>
+      <c r="J16" s="512"/>
+      <c r="K16" s="512"/>
+      <c r="L16" s="512"/>
+      <c r="M16" s="512"/>
+      <c r="N16" s="512"/>
+      <c r="O16" s="512"/>
+      <c r="P16" s="512"/>
+      <c r="Q16" s="512"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="369">
+      <c r="A17" s="511">
         <v>16</v>
       </c>
-      <c r="B17" s="371"/>
-      <c r="C17" s="360"/>
-      <c r="D17" s="371"/>
-      <c r="E17" s="360"/>
-      <c r="F17" s="371"/>
-      <c r="G17" s="360"/>
-      <c r="H17" s="371"/>
-      <c r="I17" s="360"/>
-      <c r="J17" s="371"/>
-      <c r="K17" s="360"/>
-      <c r="L17" s="371"/>
-      <c r="M17" s="360"/>
-      <c r="N17" s="371"/>
-      <c r="O17" s="360"/>
-      <c r="P17" s="371"/>
-      <c r="Q17" s="371"/>
+      <c r="B17" s="512"/>
+      <c r="C17" s="512"/>
+      <c r="D17" s="512"/>
+      <c r="E17" s="512"/>
+      <c r="F17" s="512"/>
+      <c r="G17" s="512"/>
+      <c r="H17" s="512"/>
+      <c r="I17" s="512"/>
+      <c r="J17" s="512"/>
+      <c r="K17" s="512"/>
+      <c r="L17" s="512"/>
+      <c r="M17" s="512"/>
+      <c r="N17" s="512"/>
+      <c r="O17" s="512"/>
+      <c r="P17" s="512"/>
+      <c r="Q17" s="512"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="369">
+      <c r="A18" s="511">
         <v>17</v>
       </c>
-      <c r="B18" s="371"/>
-      <c r="C18" s="360"/>
-      <c r="D18" s="371"/>
-      <c r="E18" s="360"/>
-      <c r="F18" s="371"/>
-      <c r="G18" s="360"/>
-      <c r="H18" s="371"/>
-      <c r="I18" s="360"/>
-      <c r="J18" s="371"/>
-      <c r="K18" s="360"/>
-      <c r="L18" s="371"/>
-      <c r="M18" s="360"/>
-      <c r="N18" s="371"/>
-      <c r="O18" s="360"/>
-      <c r="P18" s="371"/>
-      <c r="Q18" s="371"/>
+      <c r="B18" s="512"/>
+      <c r="C18" s="512"/>
+      <c r="D18" s="512"/>
+      <c r="E18" s="512"/>
+      <c r="F18" s="512"/>
+      <c r="G18" s="512"/>
+      <c r="H18" s="512"/>
+      <c r="I18" s="512"/>
+      <c r="J18" s="512"/>
+      <c r="K18" s="512"/>
+      <c r="L18" s="512"/>
+      <c r="M18" s="512"/>
+      <c r="N18" s="512"/>
+      <c r="O18" s="512"/>
+      <c r="P18" s="512"/>
+      <c r="Q18" s="512"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="369">
+      <c r="A19" s="511">
         <v>18</v>
       </c>
-      <c r="B19" s="371"/>
-      <c r="C19" s="360"/>
-      <c r="D19" s="371"/>
-      <c r="E19" s="360"/>
-      <c r="F19" s="371"/>
-      <c r="G19" s="360"/>
-      <c r="H19" s="371"/>
-      <c r="I19" s="360"/>
-      <c r="J19" s="371"/>
-      <c r="K19" s="360"/>
-      <c r="L19" s="371"/>
-      <c r="M19" s="360"/>
-      <c r="N19" s="371"/>
-      <c r="O19" s="360"/>
-      <c r="P19" s="371"/>
-      <c r="Q19" s="371"/>
+      <c r="B19" s="512"/>
+      <c r="C19" s="512"/>
+      <c r="D19" s="512"/>
+      <c r="E19" s="512"/>
+      <c r="F19" s="512"/>
+      <c r="G19" s="512"/>
+      <c r="H19" s="512"/>
+      <c r="I19" s="512"/>
+      <c r="J19" s="512"/>
+      <c r="K19" s="512"/>
+      <c r="L19" s="512"/>
+      <c r="M19" s="512"/>
+      <c r="N19" s="512"/>
+      <c r="O19" s="512"/>
+      <c r="P19" s="512"/>
+      <c r="Q19" s="512"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="369">
+      <c r="A20" s="511">
         <v>19</v>
       </c>
-      <c r="B20" s="371"/>
-      <c r="C20" s="360"/>
-      <c r="D20" s="371"/>
-      <c r="E20" s="360"/>
-      <c r="F20" s="371"/>
-      <c r="G20" s="360"/>
-      <c r="H20" s="371"/>
-      <c r="I20" s="360"/>
-      <c r="J20" s="371"/>
-      <c r="K20" s="360"/>
-      <c r="L20" s="371"/>
-      <c r="M20" s="360"/>
-      <c r="N20" s="371"/>
-      <c r="O20" s="360"/>
-      <c r="P20" s="371"/>
-      <c r="Q20" s="371"/>
+      <c r="B20" s="512"/>
+      <c r="C20" s="512"/>
+      <c r="D20" s="512"/>
+      <c r="E20" s="512"/>
+      <c r="F20" s="512"/>
+      <c r="G20" s="512"/>
+      <c r="H20" s="512"/>
+      <c r="I20" s="512"/>
+      <c r="J20" s="512"/>
+      <c r="K20" s="512"/>
+      <c r="L20" s="512"/>
+      <c r="M20" s="512"/>
+      <c r="N20" s="512"/>
+      <c r="O20" s="512"/>
+      <c r="P20" s="512"/>
+      <c r="Q20" s="512"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="369">
+      <c r="A21" s="511">
         <v>20</v>
       </c>
-      <c r="B21" s="371"/>
-      <c r="C21" s="360"/>
-      <c r="D21" s="371"/>
-      <c r="E21" s="360"/>
-      <c r="F21" s="371"/>
-      <c r="G21" s="360"/>
-      <c r="H21" s="371"/>
-      <c r="I21" s="360"/>
-      <c r="J21" s="371"/>
-      <c r="K21" s="360"/>
-      <c r="L21" s="371"/>
-      <c r="M21" s="360"/>
-      <c r="N21" s="371"/>
-      <c r="O21" s="360"/>
-      <c r="P21" s="371"/>
-      <c r="Q21" s="371"/>
+      <c r="B21" s="512"/>
+      <c r="C21" s="512"/>
+      <c r="D21" s="512"/>
+      <c r="E21" s="512"/>
+      <c r="F21" s="512"/>
+      <c r="G21" s="512"/>
+      <c r="H21" s="512"/>
+      <c r="I21" s="512"/>
+      <c r="J21" s="512"/>
+      <c r="K21" s="512"/>
+      <c r="L21" s="512"/>
+      <c r="M21" s="512"/>
+      <c r="N21" s="512"/>
+      <c r="O21" s="512"/>
+      <c r="P21" s="512"/>
+      <c r="Q21" s="512"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="369">
+      <c r="A22" s="511">
         <v>21</v>
       </c>
-      <c r="B22" s="371"/>
-      <c r="C22" s="360"/>
-      <c r="D22" s="371"/>
-      <c r="E22" s="360"/>
-      <c r="F22" s="371"/>
-      <c r="G22" s="360"/>
-      <c r="H22" s="371"/>
-      <c r="I22" s="360"/>
-      <c r="J22" s="371"/>
-      <c r="K22" s="360"/>
-      <c r="L22" s="371"/>
-      <c r="M22" s="360"/>
-      <c r="N22" s="371"/>
-      <c r="O22" s="360"/>
-      <c r="P22" s="371"/>
-      <c r="Q22" s="371"/>
+      <c r="B22" s="512"/>
+      <c r="C22" s="512"/>
+      <c r="D22" s="512"/>
+      <c r="E22" s="512"/>
+      <c r="F22" s="512"/>
+      <c r="G22" s="512"/>
+      <c r="H22" s="512"/>
+      <c r="I22" s="512"/>
+      <c r="J22" s="512"/>
+      <c r="K22" s="512"/>
+      <c r="L22" s="512"/>
+      <c r="M22" s="512"/>
+      <c r="N22" s="512"/>
+      <c r="O22" s="512"/>
+      <c r="P22" s="512"/>
+      <c r="Q22" s="512"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="369">
+      <c r="A23" s="511">
         <v>22</v>
       </c>
-      <c r="B23" s="371"/>
-      <c r="C23" s="360"/>
-      <c r="D23" s="371"/>
-      <c r="E23" s="360"/>
-      <c r="F23" s="371"/>
-      <c r="G23" s="360"/>
-      <c r="H23" s="371"/>
-      <c r="I23" s="360"/>
-      <c r="J23" s="371"/>
-      <c r="K23" s="360"/>
-      <c r="L23" s="371"/>
-      <c r="M23" s="360"/>
-      <c r="N23" s="371"/>
-      <c r="O23" s="360"/>
-      <c r="P23" s="371"/>
-      <c r="Q23" s="371"/>
+      <c r="B23" s="512"/>
+      <c r="C23" s="512"/>
+      <c r="D23" s="512"/>
+      <c r="E23" s="512"/>
+      <c r="F23" s="512"/>
+      <c r="G23" s="512"/>
+      <c r="H23" s="512"/>
+      <c r="I23" s="512"/>
+      <c r="J23" s="512"/>
+      <c r="K23" s="512"/>
+      <c r="L23" s="512"/>
+      <c r="M23" s="512"/>
+      <c r="N23" s="512"/>
+      <c r="O23" s="512"/>
+      <c r="P23" s="512"/>
+      <c r="Q23" s="512"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="369">
+      <c r="A24" s="511">
         <v>23</v>
       </c>
-      <c r="B24" s="371"/>
-      <c r="C24" s="360"/>
-      <c r="D24" s="371"/>
-      <c r="E24" s="360"/>
-      <c r="F24" s="371"/>
-      <c r="G24" s="360"/>
-      <c r="H24" s="371"/>
-      <c r="I24" s="360"/>
-      <c r="J24" s="371"/>
-      <c r="K24" s="360"/>
-      <c r="L24" s="371"/>
-      <c r="M24" s="360"/>
-      <c r="N24" s="371"/>
-      <c r="O24" s="360"/>
-      <c r="P24" s="371"/>
-      <c r="Q24" s="371"/>
+      <c r="B24" s="512"/>
+      <c r="C24" s="512"/>
+      <c r="D24" s="512"/>
+      <c r="E24" s="512"/>
+      <c r="F24" s="512"/>
+      <c r="G24" s="512"/>
+      <c r="H24" s="512"/>
+      <c r="I24" s="512"/>
+      <c r="J24" s="512"/>
+      <c r="K24" s="512"/>
+      <c r="L24" s="512"/>
+      <c r="M24" s="512"/>
+      <c r="N24" s="512"/>
+      <c r="O24" s="512"/>
+      <c r="P24" s="512"/>
+      <c r="Q24" s="512"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="369">
+      <c r="A25" s="511">
         <v>24</v>
       </c>
-      <c r="B25" s="371"/>
-      <c r="C25" s="360"/>
-      <c r="D25" s="371"/>
-      <c r="E25" s="360"/>
-      <c r="F25" s="371"/>
-      <c r="G25" s="360"/>
-      <c r="H25" s="371"/>
-      <c r="I25" s="360"/>
-      <c r="J25" s="371"/>
-      <c r="K25" s="360"/>
-      <c r="L25" s="371"/>
-      <c r="M25" s="360"/>
-      <c r="N25" s="371"/>
-      <c r="O25" s="360"/>
-      <c r="P25" s="371"/>
-      <c r="Q25" s="371"/>
+      <c r="B25" s="512"/>
+      <c r="C25" s="512"/>
+      <c r="D25" s="512"/>
+      <c r="E25" s="512"/>
+      <c r="F25" s="512"/>
+      <c r="G25" s="512"/>
+      <c r="H25" s="512"/>
+      <c r="I25" s="512"/>
+      <c r="J25" s="512"/>
+      <c r="K25" s="512"/>
+      <c r="L25" s="512"/>
+      <c r="M25" s="512"/>
+      <c r="N25" s="512"/>
+      <c r="O25" s="512"/>
+      <c r="P25" s="512"/>
+      <c r="Q25" s="512"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="369">
+      <c r="A26" s="511">
         <v>25</v>
       </c>
-      <c r="B26" s="371"/>
-      <c r="C26" s="360"/>
-      <c r="D26" s="371"/>
-      <c r="E26" s="360"/>
-      <c r="F26" s="371"/>
-      <c r="G26" s="360"/>
-      <c r="H26" s="371"/>
-      <c r="I26" s="360"/>
-      <c r="J26" s="371"/>
-      <c r="K26" s="360"/>
-      <c r="L26" s="371"/>
-      <c r="M26" s="360"/>
-      <c r="N26" s="371"/>
-      <c r="O26" s="360"/>
-      <c r="P26" s="371"/>
-      <c r="Q26" s="371"/>
+      <c r="B26" s="512"/>
+      <c r="C26" s="512"/>
+      <c r="D26" s="512"/>
+      <c r="E26" s="512"/>
+      <c r="F26" s="512"/>
+      <c r="G26" s="512"/>
+      <c r="H26" s="512"/>
+      <c r="I26" s="512"/>
+      <c r="J26" s="512"/>
+      <c r="K26" s="512"/>
+      <c r="L26" s="512"/>
+      <c r="M26" s="512"/>
+      <c r="N26" s="512"/>
+      <c r="O26" s="512"/>
+      <c r="P26" s="512"/>
+      <c r="Q26" s="512"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="369">
+      <c r="A27" s="511">
         <v>26</v>
       </c>
-      <c r="B27" s="371"/>
-      <c r="C27" s="360"/>
-      <c r="D27" s="371"/>
-      <c r="E27" s="360"/>
-      <c r="F27" s="371"/>
-      <c r="G27" s="360"/>
-      <c r="H27" s="371"/>
-      <c r="I27" s="360"/>
-      <c r="J27" s="371"/>
-      <c r="K27" s="360"/>
-      <c r="L27" s="371"/>
-      <c r="M27" s="360"/>
-      <c r="N27" s="371"/>
-      <c r="O27" s="360"/>
-      <c r="P27" s="371"/>
-      <c r="Q27" s="371"/>
+      <c r="B27" s="512"/>
+      <c r="C27" s="512"/>
+      <c r="D27" s="512"/>
+      <c r="E27" s="512"/>
+      <c r="F27" s="512"/>
+      <c r="G27" s="512"/>
+      <c r="H27" s="512"/>
+      <c r="I27" s="512"/>
+      <c r="J27" s="512"/>
+      <c r="K27" s="512"/>
+      <c r="L27" s="512"/>
+      <c r="M27" s="512"/>
+      <c r="N27" s="512"/>
+      <c r="O27" s="512"/>
+      <c r="P27" s="512"/>
+      <c r="Q27" s="512"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="369">
+      <c r="A28" s="511">
         <v>27</v>
       </c>
-      <c r="B28" s="371"/>
-      <c r="C28" s="360"/>
-      <c r="D28" s="371"/>
-      <c r="E28" s="360"/>
-      <c r="F28" s="371"/>
-      <c r="G28" s="360"/>
-      <c r="H28" s="371"/>
-      <c r="I28" s="360"/>
-      <c r="J28" s="371"/>
-      <c r="K28" s="360"/>
-      <c r="L28" s="371"/>
-      <c r="M28" s="360"/>
-      <c r="N28" s="371"/>
-      <c r="O28" s="360"/>
-      <c r="P28" s="371"/>
-      <c r="Q28" s="371"/>
+      <c r="B28" s="512"/>
+      <c r="C28" s="512"/>
+      <c r="D28" s="512"/>
+      <c r="E28" s="512"/>
+      <c r="F28" s="512"/>
+      <c r="G28" s="512"/>
+      <c r="H28" s="512"/>
+      <c r="I28" s="512"/>
+      <c r="J28" s="512"/>
+      <c r="K28" s="512"/>
+      <c r="L28" s="512"/>
+      <c r="M28" s="512"/>
+      <c r="N28" s="512"/>
+      <c r="O28" s="512"/>
+      <c r="P28" s="512"/>
+      <c r="Q28" s="512"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="369">
+      <c r="A29" s="511">
         <v>28</v>
       </c>
-      <c r="B29" s="371"/>
-      <c r="C29" s="360"/>
-      <c r="D29" s="371"/>
-      <c r="E29" s="360"/>
-      <c r="F29" s="371"/>
-      <c r="G29" s="360"/>
-      <c r="H29" s="371"/>
-      <c r="I29" s="360"/>
-      <c r="J29" s="371"/>
-      <c r="K29" s="360"/>
-      <c r="L29" s="371"/>
-      <c r="M29" s="360"/>
-      <c r="N29" s="371"/>
-      <c r="O29" s="360"/>
-      <c r="P29" s="371"/>
-      <c r="Q29" s="371"/>
+      <c r="B29" s="512"/>
+      <c r="C29" s="512"/>
+      <c r="D29" s="512"/>
+      <c r="E29" s="512"/>
+      <c r="F29" s="512"/>
+      <c r="G29" s="512"/>
+      <c r="H29" s="512"/>
+      <c r="I29" s="512"/>
+      <c r="J29" s="512"/>
+      <c r="K29" s="512"/>
+      <c r="L29" s="512"/>
+      <c r="M29" s="512"/>
+      <c r="N29" s="512"/>
+      <c r="O29" s="512"/>
+      <c r="P29" s="512"/>
+      <c r="Q29" s="512"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="369">
+      <c r="A30" s="511">
         <v>29</v>
       </c>
-      <c r="B30" s="371"/>
-      <c r="C30" s="360"/>
-      <c r="D30" s="371"/>
-      <c r="E30" s="360"/>
-      <c r="F30" s="371"/>
-      <c r="G30" s="360"/>
-      <c r="H30" s="371"/>
-      <c r="I30" s="360"/>
-      <c r="J30" s="371"/>
-      <c r="K30" s="360"/>
-      <c r="L30" s="371"/>
-      <c r="M30" s="360"/>
-      <c r="N30" s="371"/>
-      <c r="O30" s="360"/>
-      <c r="P30" s="371"/>
-      <c r="Q30" s="371"/>
+      <c r="B30" s="512"/>
+      <c r="C30" s="512"/>
+      <c r="D30" s="512"/>
+      <c r="E30" s="512"/>
+      <c r="F30" s="512"/>
+      <c r="G30" s="512"/>
+      <c r="H30" s="512"/>
+      <c r="I30" s="512"/>
+      <c r="J30" s="512"/>
+      <c r="K30" s="512"/>
+      <c r="L30" s="512"/>
+      <c r="M30" s="512"/>
+      <c r="N30" s="512"/>
+      <c r="O30" s="512"/>
+      <c r="P30" s="512"/>
+      <c r="Q30" s="512"/>
     </row>
     <row r="31" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="370">
+      <c r="A31" s="367">
         <v>30</v>
       </c>
-      <c r="B31" s="372"/>
-      <c r="C31" s="361"/>
-      <c r="D31" s="372"/>
-      <c r="E31" s="361"/>
-      <c r="F31" s="372"/>
-      <c r="G31" s="361"/>
-      <c r="H31" s="372"/>
-      <c r="I31" s="361"/>
-      <c r="J31" s="372"/>
-      <c r="K31" s="361"/>
-      <c r="L31" s="372"/>
-      <c r="M31" s="361"/>
-      <c r="N31" s="372"/>
-      <c r="O31" s="361"/>
-      <c r="P31" s="372"/>
-      <c r="Q31" s="372"/>
+      <c r="B31" s="368"/>
+      <c r="C31" s="359"/>
+      <c r="D31" s="368"/>
+      <c r="E31" s="359"/>
+      <c r="F31" s="368"/>
+      <c r="G31" s="359"/>
+      <c r="H31" s="368"/>
+      <c r="I31" s="359"/>
+      <c r="J31" s="368"/>
+      <c r="K31" s="359"/>
+      <c r="L31" s="368"/>
+      <c r="M31" s="359"/>
+      <c r="N31" s="368"/>
+      <c r="O31" s="359"/>
+      <c r="P31" s="368"/>
+      <c r="Q31" s="368"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25127,29 +25254,29 @@
     <row r="1" spans="18:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="18:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R2" s="284" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S2" s="285"/>
       <c r="T2" s="330" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U2" s="294"/>
       <c r="V2" s="295"/>
     </row>
     <row r="3" spans="18:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R3" s="342" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S3" s="341"/>
       <c r="T3" s="340" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U3" s="291"/>
       <c r="V3" s="292"/>
     </row>
     <row r="14" spans="18:22" x14ac:dyDescent="0.3">
       <c r="R14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -25174,22 +25301,22 @@
     <row r="1" spans="18:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="18:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R2" s="284" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S2" s="285"/>
       <c r="T2" s="330" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="U2" s="294"/>
       <c r="V2" s="295"/>
     </row>
     <row r="3" spans="18:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R3" s="342" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S3" s="341"/>
       <c r="T3" s="331" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U3" s="291"/>
       <c r="V3" s="292"/>
@@ -25217,40 +25344,40 @@
     <row r="1" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I2" s="282" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J2" s="283"/>
       <c r="K2" s="329" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L2" s="296"/>
       <c r="M2" s="297"/>
     </row>
     <row r="3" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I3" s="284" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J3" s="285"/>
       <c r="K3" s="330" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L3" s="294"/>
       <c r="M3" s="295"/>
     </row>
     <row r="4" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I4" s="342" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J4" s="341"/>
       <c r="K4" s="331" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L4" s="291"/>
       <c r="M4" s="292"/>
     </row>
     <row r="9" spans="9:14" x14ac:dyDescent="0.3">
       <c r="N9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -25278,40 +25405,40 @@
     <row r="2" spans="10:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="10:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J3" s="282" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K3" s="283"/>
       <c r="L3" s="329" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M3" s="296"/>
       <c r="N3" s="297"/>
     </row>
     <row r="4" spans="10:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J4" s="336" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K4" s="337"/>
       <c r="L4" s="330" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M4" s="294"/>
       <c r="N4" s="295"/>
     </row>
     <row r="5" spans="10:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J5" s="342" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K5" s="341"/>
       <c r="L5" s="331" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M5" s="291"/>
       <c r="N5" s="292"/>
     </row>
     <row r="12" spans="10:14" x14ac:dyDescent="0.3">
       <c r="K12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -25337,33 +25464,33 @@
     <row r="1" spans="10:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="10:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J2" s="282" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K2" s="283"/>
       <c r="L2" s="329" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M2" s="296"/>
       <c r="N2" s="297"/>
     </row>
     <row r="3" spans="10:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J3" s="336" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K3" s="337"/>
       <c r="L3" s="330" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M3" s="294"/>
       <c r="N3" s="295"/>
     </row>
     <row r="4" spans="10:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J4" s="336" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K4" s="337"/>
       <c r="L4" s="331" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M4" s="291"/>
       <c r="N4" s="292"/>
@@ -25391,33 +25518,33 @@
     <row r="1" spans="15:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="15:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O2" s="338" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P2" s="339"/>
       <c r="Q2" s="329" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="R2" s="296"/>
       <c r="S2" s="297"/>
     </row>
     <row r="3" spans="15:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O3" s="336" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P3" s="337"/>
       <c r="Q3" s="330" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R3" s="294"/>
       <c r="S3" s="295"/>
     </row>
     <row r="4" spans="15:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O4" s="336" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P4" s="337"/>
       <c r="Q4" s="331" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R4" s="291"/>
       <c r="S4" s="292"/>
@@ -25445,30 +25572,30 @@
     <row r="1" spans="15:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="15:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O2" s="338" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P2" s="329" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q2" s="296"/>
       <c r="R2" s="297"/>
     </row>
     <row r="3" spans="15:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O3" s="336" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P3" s="330" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q3" s="294"/>
       <c r="R3" s="295"/>
     </row>
     <row r="4" spans="15:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O4" s="336" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P4" s="331" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q4" s="291"/>
       <c r="R4" s="292"/>
